--- a/raw_data/umd/2023/RL_2023-07-24_SCav.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-24_SCav.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_24_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6F1BE3-A166-8A42-B4BE-764DAAC9AE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF159D-31FA-B840-8C04-18AB0DC71656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{53DC6364-BF9C-2748-9CE0-4C9B279B7E70}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = SCav</t>
-  </si>
-  <si>
-    <t>Location ID = 171c8e67-133f-4eb0-8bd4-534b3291f587</t>
-  </si>
-  <si>
-    <t>Latitude = 46.904717 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.035283 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-24 11:21:45</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:01:00</t>
-  </si>
-  <si>
-    <t>Readings = 61</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -126,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -633,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1011,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884BF8A1-AB3F-DF41-AB2E-3C7F4FADB761}">
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1037,3450 +994,3355 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45131.473437499997</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9.0701099999999997</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8.3168159999999993</v>
+      </c>
+      <c r="D2" s="3">
+        <v>94.852670000000003</v>
+      </c>
+      <c r="E2" s="3">
+        <v>104.813</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.9125839999999997E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99823890000000004</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.8127649999999998E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.9261644</v>
+      </c>
+      <c r="J2" s="3">
+        <v>20.024619999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.11750770000000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.89992369999999999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>8.2616140000000005E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.26896750000000003</v>
+      </c>
+      <c r="O2" s="3">
+        <v>996.34910000000002</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45131.473449074074</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.3363530000000008</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.2389559999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>94.778109999999998</v>
+      </c>
+      <c r="E3" s="3">
+        <v>104.7308</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.9147879999999998E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99824170000000001</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6.8157400000000007E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.97105350000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20.024560000000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.11265989999999999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.8884919</v>
+      </c>
+      <c r="M3" s="3">
+        <v>7.9207780000000005E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.27786739999999999</v>
+      </c>
+      <c r="O3" s="3">
+        <v>996.34950000000003</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45131.473460648151</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.3469789999999993</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.2362350000000006</v>
+      </c>
+      <c r="D4" s="3">
+        <v>94.772959999999998</v>
+      </c>
+      <c r="E4" s="3">
+        <v>104.7261</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.914839E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99824190000000002</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.8159200000000003E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.97445139999999997</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20.024080000000001</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.11154459999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.885911</v>
+      </c>
+      <c r="M4" s="3">
+        <v>7.8423629999999994E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.27802660000000001</v>
+      </c>
+      <c r="O4" s="3">
+        <v>996.34969999999998</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45131.47347222222</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.3576049999999995</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.2335130000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>94.767809999999997</v>
+      </c>
+      <c r="E5" s="3">
+        <v>104.72150000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.9148890000000001E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99824210000000002</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.8160999999999999E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.97784919999999997</v>
+      </c>
+      <c r="J5" s="3">
+        <v>20.023599999999998</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.11042929999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.88333010000000001</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7.76395E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.27818579999999998</v>
+      </c>
+      <c r="O5" s="3">
+        <v>996.34990000000005</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45131.473483796297</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.2005210000000002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8.2689439999999994</v>
+      </c>
+      <c r="D6" s="3">
+        <v>94.896119999999996</v>
+      </c>
+      <c r="E6" s="3">
+        <v>104.88979999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.916947E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99824179999999996</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.8187120000000004E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.96526460000000003</v>
+      </c>
+      <c r="J6" s="3">
+        <v>20.010560000000002</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.1337122</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.93715999999999999</v>
+      </c>
+      <c r="M6" s="3">
+        <v>9.4009060000000005E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.2865664</v>
+      </c>
+      <c r="O6" s="3">
+        <v>996.35850000000005</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45131.473495370374</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.1971089999999993</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.2696539999999992</v>
+      </c>
+      <c r="D7" s="3">
+        <v>94.901079999999993</v>
+      </c>
+      <c r="E7" s="3">
+        <v>104.8967</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.917084E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99824190000000002</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.8188960000000007E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.96553420000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>20.009869999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.13474410000000001</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.93954280000000001</v>
+      </c>
+      <c r="M7" s="3">
+        <v>9.4734509999999994E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.28710829999999998</v>
+      </c>
+      <c r="O7" s="3">
+        <v>996.35889999999995</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45131.473506944443</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.1936970000000002</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8.270365</v>
+      </c>
+      <c r="D8" s="3">
+        <v>94.906049999999993</v>
+      </c>
+      <c r="E8" s="3">
+        <v>104.9037</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.9172210000000001E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99824199999999996</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.8190799999999996E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.96580379999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20.009170000000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.1357759</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.94192580000000004</v>
+      </c>
+      <c r="M8" s="3">
+        <v>9.5459970000000005E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.28765020000000002</v>
+      </c>
+      <c r="O8" s="3">
+        <v>996.35929999999996</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45131.47351851852</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.2380610000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.1289259999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>94.920789999999997</v>
+      </c>
+      <c r="E9" s="3">
+        <v>104.8967</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.916835E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99825390000000003</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.7938189999999996E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.92534510000000003</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20.020700000000001</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.95725879999999997</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2.8348300000000002</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.6730199</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.2877537</v>
+      </c>
+      <c r="O9" s="3">
+        <v>996.35940000000005</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45131.473530092589</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9.2368159999999992</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.1224720000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>94.924239999999998</v>
+      </c>
+      <c r="E10" s="3">
+        <v>104.8999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.916856E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99825450000000004</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.7925780000000005E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.9230083</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20.021000000000001</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.99980239999999998</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2.9328650000000001</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.70293099999999997</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.28792279999999998</v>
+      </c>
+      <c r="O10" s="3">
+        <v>996.3596</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45131.473541666666</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.2355719999999994</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.1160160000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>94.927689999999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>104.90309999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.9168759999999999E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99825509999999995</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.7913379999999995E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.92067149999999998</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20.02131</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.042346</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3.0308999999999999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.73284210000000005</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.28809190000000001</v>
+      </c>
+      <c r="O11" s="3">
+        <v>996.35979999999995</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45131.473553240743</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9.1035900000000005</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.3040959999999995</v>
+      </c>
+      <c r="D12" s="3">
+        <v>94.278469999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>104.47920000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.8962949999999998E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.9982685</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.7882020000000001E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.9143597</v>
+      </c>
+      <c r="J12" s="3">
+        <v>19.952590000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.5893969999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4.2941149999999997</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.1174580000000001</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.29581030000000003</v>
+      </c>
+      <c r="O12" s="3">
+        <v>996.351</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.904293090000003</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.036911480000001</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45131.473564814813</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.0976499999999998</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8.3108020000000007</v>
+      </c>
+      <c r="D13" s="3">
+        <v>94.2453</v>
+      </c>
+      <c r="E13" s="3">
+        <v>104.4572</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.8952240000000001E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99826950000000003</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.7875000000000005E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.91316149999999996</v>
+      </c>
+      <c r="J13" s="3">
+        <v>19.949290000000001</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.63524</v>
+      </c>
+      <c r="L13" s="3">
+        <v>4.3998860000000004</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.149688</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.29621380000000003</v>
+      </c>
+      <c r="O13" s="3">
+        <v>996.35050000000001</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.904313119999998</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.036915539999995</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45131.473576388889</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9.0917080000000006</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8.3175080000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>94.212130000000002</v>
+      </c>
+      <c r="E14" s="3">
+        <v>104.43519999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.8941539999999999E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.9982704</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.7867979999999994E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.91196319999999997</v>
+      </c>
+      <c r="J14" s="3">
+        <v>19.945979999999999</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.6810830000000001</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4.5056570000000002</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.1819189999999999</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.29661729999999997</v>
+      </c>
+      <c r="O14" s="3">
+        <v>996.3501</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.904313119999998</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.036915539999995</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45131.473587962966</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.1802320000000002</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8.1927800000000008</v>
+      </c>
+      <c r="D15" s="3">
+        <v>94.184510000000003</v>
+      </c>
+      <c r="E15" s="3">
+        <v>104.4987</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.8971960000000002E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99828519999999998</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.7922220000000005E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.9921662</v>
+      </c>
+      <c r="J15" s="3">
+        <v>19.840479999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2.7474699999999999</v>
+      </c>
+      <c r="L15" s="3">
+        <v>6.9649869999999998</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.931664</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.28898449999999998</v>
+      </c>
+      <c r="O15" s="3">
+        <v>996.39300000000003</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.904308890000003</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.03690254</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45131.473599537036</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9.1819520000000008</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8.1903260000000007</v>
+      </c>
+      <c r="D16" s="3">
+        <v>94.169200000000004</v>
+      </c>
+      <c r="E16" s="3">
+        <v>104.49290000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.8969119999999998E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99828620000000001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.792426E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.99615849999999995</v>
+      </c>
+      <c r="J16" s="3">
+        <v>19.833559999999999</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2.8146279999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>7.1199029999999999</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.9788809999999999</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.2887575</v>
+      </c>
+      <c r="O16" s="3">
+        <v>996.39499999999998</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.904308890000003</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.03690254</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45131.473611111112</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.1836710000000004</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8.1878709999999995</v>
+      </c>
+      <c r="D17" s="3">
+        <v>94.153880000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>104.4871</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.8966280000000001E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99828729999999999</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.7926310000000004E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.000151</v>
+      </c>
+      <c r="J17" s="3">
+        <v>19.826630000000002</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.8817870000000001</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7.2748200000000001</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2.0260980000000002</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.28853050000000002</v>
+      </c>
+      <c r="O17" s="3">
+        <v>996.39710000000002</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.904308890000003</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.03690254</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45131.473622685182</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9.1576360000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8.3034820000000007</v>
+      </c>
+      <c r="D18" s="3">
+        <v>94.078509999999994</v>
+      </c>
+      <c r="E18" s="3">
+        <v>104.4847</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.8964800000000003E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99828859999999997</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.7915959999999997E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.93703610000000004</v>
+      </c>
+      <c r="J18" s="3">
+        <v>19.794239999999999</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3.3682189999999999</v>
+      </c>
+      <c r="L18" s="3">
+        <v>8.3946529999999999</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2.368093</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.28831279999999998</v>
+      </c>
+      <c r="O18" s="3">
+        <v>996.34690000000001</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.904308890000003</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.03690254</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45131.473634259259</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9.1581440000000001</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8.3068460000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>94.073909999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>104.4858</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.8965330000000001E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99828899999999998</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.7916509999999999E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.93544349999999998</v>
+      </c>
+      <c r="J19" s="3">
+        <v>19.790320000000001</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3.4163100000000002</v>
+      </c>
+      <c r="L19" s="3">
+        <v>8.5054590000000001</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2.4019050000000002</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.28814139999999999</v>
+      </c>
+      <c r="O19" s="3">
+        <v>996.34519999999998</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.904301719999999</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.036891600000004</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45131.473645833335</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.1586529999999993</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8.3102079999999994</v>
+      </c>
+      <c r="D20" s="3">
+        <v>94.069310000000002</v>
+      </c>
+      <c r="E20" s="3">
+        <v>104.48699999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.896586E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99828950000000005</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.7917050000000007E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.93385090000000004</v>
+      </c>
+      <c r="J20" s="3">
+        <v>19.7864</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3.4644010000000001</v>
+      </c>
+      <c r="L20" s="3">
+        <v>8.616263</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2.4357160000000002</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.28797</v>
+      </c>
+      <c r="O20" s="3">
+        <v>996.34349999999995</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.904301719999999</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.036891600000004</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45131.473657407405</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.1291569999999993</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8.2290320000000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>93.944360000000003</v>
+      </c>
+      <c r="E21" s="3">
+        <v>104.4158</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.893111E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.9982955</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6.7851910000000001E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.93503619999999998</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19.750240000000002</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3.9082750000000002</v>
+      </c>
+      <c r="L21" s="3">
+        <v>10.510949999999999</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3.0131260000000002</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="O21" s="3">
+        <v>996.35889999999995</v>
+      </c>
+      <c r="P21" s="3">
+        <v>46.904293170000003</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-91.036880479999994</v>
+      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45131.473668981482</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.1270240000000005</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8.2272549999999995</v>
+      </c>
+      <c r="D22" s="3">
+        <v>93.936130000000006</v>
+      </c>
+      <c r="E22" s="3">
+        <v>104.41200000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.8929220000000002E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.99829579999999996</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.7848270000000002E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.93376139999999996</v>
+      </c>
+      <c r="J22" s="3">
+        <v>19.747669999999999</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3.9415840000000002</v>
+      </c>
+      <c r="L22" s="3">
+        <v>10.633369999999999</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3.050449</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="O22" s="3">
+        <v>996.35860000000002</v>
+      </c>
+      <c r="P22" s="3">
+        <v>46.904293170000003</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-91.036880479999994</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45131.473437499997</v>
+        <v>45131.473680555559</v>
       </c>
       <c r="B23" s="3">
-        <v>9.0701099999999997</v>
+        <v>9.1248909999999999</v>
       </c>
       <c r="C23" s="3">
-        <v>8.3168159999999993</v>
+        <v>8.2254780000000007</v>
       </c>
       <c r="D23" s="3">
-        <v>94.852670000000003</v>
+        <v>93.927890000000005</v>
       </c>
       <c r="E23" s="3">
-        <v>104.813</v>
+        <v>104.4081</v>
       </c>
       <c r="F23" s="3">
-        <v>4.9125839999999997E-2</v>
+        <v>4.8927320000000003E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99823890000000004</v>
+        <v>0.99829619999999997</v>
       </c>
       <c r="H23" s="3">
-        <v>6.8127649999999998E-2</v>
+        <v>6.7844619999999994E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.9261644</v>
+        <v>0.93248660000000005</v>
       </c>
       <c r="J23" s="3">
-        <v>20.024619999999999</v>
+        <v>19.74511</v>
       </c>
       <c r="K23" s="3">
-        <v>0.11750770000000001</v>
+        <v>3.9748920000000001</v>
       </c>
       <c r="L23" s="3">
-        <v>0.89992369999999999</v>
+        <v>10.755789999999999</v>
       </c>
       <c r="M23" s="3">
-        <v>8.2616140000000005E-2</v>
+        <v>3.087771</v>
       </c>
       <c r="N23" s="3">
-        <v>0.26896750000000003</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="O23" s="3">
-        <v>996.34910000000002</v>
+        <v>996.35829999999999</v>
       </c>
       <c r="P23" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904293170000003</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036880479999994</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45131.473449074074</v>
+        <v>45131.473692129628</v>
       </c>
       <c r="B24" s="3">
-        <v>9.3363530000000008</v>
+        <v>9.1227590000000003</v>
       </c>
       <c r="C24" s="3">
-        <v>8.2389559999999999</v>
+        <v>8.2237010000000001</v>
       </c>
       <c r="D24" s="3">
-        <v>94.778109999999998</v>
+        <v>93.919650000000004</v>
       </c>
       <c r="E24" s="3">
-        <v>104.7308</v>
+        <v>104.4042</v>
       </c>
       <c r="F24" s="3">
-        <v>4.9147879999999998E-2</v>
+        <v>4.8925429999999999E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99824170000000001</v>
+        <v>0.99829659999999998</v>
       </c>
       <c r="H24" s="3">
-        <v>6.8157400000000007E-2</v>
+        <v>6.784097E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0.97105350000000001</v>
+        <v>0.93121180000000003</v>
       </c>
       <c r="J24" s="3">
-        <v>20.024560000000001</v>
+        <v>19.742550000000001</v>
       </c>
       <c r="K24" s="3">
-        <v>0.11265989999999999</v>
+        <v>4.0082009999999997</v>
       </c>
       <c r="L24" s="3">
-        <v>0.8884919</v>
+        <v>10.878209999999999</v>
       </c>
       <c r="M24" s="3">
-        <v>7.9207780000000005E-2</v>
+        <v>3.1250939999999998</v>
       </c>
       <c r="N24" s="3">
-        <v>0.27786739999999999</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="O24" s="3">
-        <v>996.34950000000003</v>
+        <v>996.35810000000004</v>
       </c>
       <c r="P24" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904293170000003</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036880479999994</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45131.473460648151</v>
+        <v>45131.473703703705</v>
       </c>
       <c r="B25" s="3">
-        <v>9.3469789999999993</v>
+        <v>9.1242280000000004</v>
       </c>
       <c r="C25" s="3">
-        <v>8.2362350000000006</v>
+        <v>8.3972320000000007</v>
       </c>
       <c r="D25" s="3">
-        <v>94.772959999999998</v>
+        <v>93.763819999999996</v>
       </c>
       <c r="E25" s="3">
-        <v>104.7261</v>
+        <v>104.3501</v>
       </c>
       <c r="F25" s="3">
-        <v>4.914839E-2</v>
+        <v>4.8898700000000003E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99824190000000002</v>
+        <v>0.99830750000000001</v>
       </c>
       <c r="H25" s="3">
-        <v>6.8159200000000003E-2</v>
+        <v>6.7825449999999995E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>0.97445139999999997</v>
+        <v>0.93270520000000001</v>
       </c>
       <c r="J25" s="3">
-        <v>20.024080000000001</v>
+        <v>19.71705</v>
       </c>
       <c r="K25" s="3">
-        <v>0.11154459999999999</v>
+        <v>4.526446</v>
       </c>
       <c r="L25" s="3">
-        <v>0.885911</v>
+        <v>11.165660000000001</v>
       </c>
       <c r="M25" s="3">
-        <v>7.8423629999999994E-2</v>
+        <v>3.2122809999999999</v>
       </c>
       <c r="N25" s="3">
-        <v>0.27802660000000001</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="O25" s="3">
-        <v>996.34969999999998</v>
+        <v>996.39459999999997</v>
       </c>
       <c r="P25" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904293170000003</v>
       </c>
       <c r="Q25" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036880479999994</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45131.47347222222</v>
+        <v>45131.473715277774</v>
       </c>
       <c r="B26" s="3">
-        <v>9.3576049999999995</v>
+        <v>9.1236339999999991</v>
       </c>
       <c r="C26" s="3">
-        <v>8.2335130000000003</v>
+        <v>8.4042049999999993</v>
       </c>
       <c r="D26" s="3">
-        <v>94.767809999999997</v>
+        <v>93.753119999999996</v>
       </c>
       <c r="E26" s="3">
-        <v>104.72150000000001</v>
+        <v>104.3458</v>
       </c>
       <c r="F26" s="3">
-        <v>4.9148890000000001E-2</v>
+        <v>4.889657E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99824210000000002</v>
+        <v>0.99830819999999998</v>
       </c>
       <c r="H26" s="3">
-        <v>6.8160999999999999E-2</v>
+        <v>6.7823209999999995E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>0.97784919999999997</v>
+        <v>0.93277980000000005</v>
       </c>
       <c r="J26" s="3">
-        <v>20.023599999999998</v>
+        <v>19.714929999999999</v>
       </c>
       <c r="K26" s="3">
-        <v>0.11042929999999999</v>
+        <v>4.5628330000000004</v>
       </c>
       <c r="L26" s="3">
-        <v>0.88333010000000001</v>
+        <v>11.223369999999999</v>
       </c>
       <c r="M26" s="3">
-        <v>7.76395E-2</v>
+        <v>3.2298469999999999</v>
       </c>
       <c r="N26" s="3">
-        <v>0.27818579999999998</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="O26" s="3">
-        <v>996.34990000000005</v>
+        <v>996.39670000000001</v>
       </c>
       <c r="P26" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904289120000001</v>
       </c>
       <c r="Q26" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036864829999999</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45131.473483796297</v>
+        <v>45131.473726851851</v>
       </c>
       <c r="B27" s="3">
-        <v>9.2005210000000002</v>
+        <v>9.1230399999999996</v>
       </c>
       <c r="C27" s="3">
-        <v>8.2689439999999994</v>
+        <v>8.4111790000000006</v>
       </c>
       <c r="D27" s="3">
-        <v>94.896119999999996</v>
+        <v>93.742429999999999</v>
       </c>
       <c r="E27" s="3">
-        <v>104.88979999999999</v>
+        <v>104.3415</v>
       </c>
       <c r="F27" s="3">
-        <v>4.916947E-2</v>
+        <v>4.8894449999999999E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99824179999999996</v>
+        <v>0.99830890000000005</v>
       </c>
       <c r="H27" s="3">
-        <v>6.8187120000000004E-2</v>
+        <v>6.7820969999999994E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>0.96526460000000003</v>
+        <v>0.93285430000000003</v>
       </c>
       <c r="J27" s="3">
-        <v>20.010560000000002</v>
+        <v>19.712810000000001</v>
       </c>
       <c r="K27" s="3">
-        <v>0.1337122</v>
+        <v>4.5992199999999999</v>
       </c>
       <c r="L27" s="3">
-        <v>0.93715999999999999</v>
+        <v>11.281079999999999</v>
       </c>
       <c r="M27" s="3">
-        <v>9.4009060000000005E-2</v>
+        <v>3.2474129999999999</v>
       </c>
       <c r="N27" s="3">
-        <v>0.2865664</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="O27" s="3">
-        <v>996.35850000000005</v>
+        <v>996.39890000000003</v>
       </c>
       <c r="P27" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904289120000001</v>
       </c>
       <c r="Q27" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036864829999999</v>
       </c>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45131.473495370374</v>
+        <v>45131.473738425928</v>
       </c>
       <c r="B28" s="3">
-        <v>9.1971089999999993</v>
+        <v>9.1540949999999999</v>
       </c>
       <c r="C28" s="3">
-        <v>8.2696539999999992</v>
+        <v>8.4228170000000002</v>
       </c>
       <c r="D28" s="3">
-        <v>94.901079999999993</v>
+        <v>93.59796</v>
       </c>
       <c r="E28" s="3">
-        <v>104.8967</v>
+        <v>104.2646</v>
       </c>
       <c r="F28" s="3">
-        <v>4.917084E-2</v>
+        <v>4.8856829999999997E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99824190000000002</v>
+        <v>0.9983166</v>
       </c>
       <c r="H28" s="3">
-        <v>6.8188960000000007E-2</v>
+        <v>6.7771419999999999E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>0.96553420000000001</v>
+        <v>0.96119060000000001</v>
       </c>
       <c r="J28" s="3">
-        <v>20.009869999999999</v>
+        <v>19.646989999999999</v>
       </c>
       <c r="K28" s="3">
-        <v>0.13474410000000001</v>
+        <v>5.1069969999999998</v>
       </c>
       <c r="L28" s="3">
-        <v>0.93954280000000001</v>
+        <v>12.43296</v>
       </c>
       <c r="M28" s="3">
-        <v>9.4734509999999994E-2</v>
+        <v>3.872986</v>
       </c>
       <c r="N28" s="3">
-        <v>0.28710829999999998</v>
+        <v>0.28011190000000002</v>
       </c>
       <c r="O28" s="3">
-        <v>996.35889999999995</v>
+        <v>996.37239999999997</v>
       </c>
       <c r="P28" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904289120000001</v>
       </c>
       <c r="Q28" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036864829999999</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45131.473506944443</v>
+        <v>45131.473749999997</v>
       </c>
       <c r="B29" s="3">
-        <v>9.1936970000000002</v>
+        <v>9.1556619999999995</v>
       </c>
       <c r="C29" s="3">
-        <v>8.270365</v>
+        <v>8.4270940000000003</v>
       </c>
       <c r="D29" s="3">
-        <v>94.906049999999993</v>
+        <v>93.587149999999994</v>
       </c>
       <c r="E29" s="3">
-        <v>104.9037</v>
+        <v>104.2594</v>
       </c>
       <c r="F29" s="3">
-        <v>4.9172210000000001E-2</v>
+        <v>4.8854309999999998E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99824199999999996</v>
+        <v>0.99831720000000002</v>
       </c>
       <c r="H29" s="3">
-        <v>6.8190799999999996E-2</v>
+        <v>6.7768510000000004E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>0.96580379999999999</v>
+        <v>0.96263339999999997</v>
       </c>
       <c r="J29" s="3">
-        <v>20.009170000000001</v>
+        <v>19.643059999999998</v>
       </c>
       <c r="K29" s="3">
-        <v>0.1357759</v>
+        <v>5.1444720000000004</v>
       </c>
       <c r="L29" s="3">
-        <v>0.94192580000000004</v>
+        <v>12.49982</v>
       </c>
       <c r="M29" s="3">
-        <v>9.5459970000000005E-2</v>
+        <v>3.9072879999999999</v>
       </c>
       <c r="N29" s="3">
-        <v>0.28765020000000002</v>
+        <v>0.2797116</v>
       </c>
       <c r="O29" s="3">
-        <v>996.35929999999996</v>
+        <v>996.37180000000001</v>
       </c>
       <c r="P29" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904289120000001</v>
       </c>
       <c r="Q29" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036864829999999</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45131.47351851852</v>
+        <v>45131.473761574074</v>
       </c>
       <c r="B30" s="3">
-        <v>9.2380610000000001</v>
+        <v>9.1572289999999992</v>
       </c>
       <c r="C30" s="3">
-        <v>8.1289259999999999</v>
+        <v>8.4313699999999994</v>
       </c>
       <c r="D30" s="3">
-        <v>94.920789999999997</v>
+        <v>93.576329999999999</v>
       </c>
       <c r="E30" s="3">
-        <v>104.8967</v>
+        <v>104.2543</v>
       </c>
       <c r="F30" s="3">
-        <v>4.916835E-2</v>
+        <v>4.8851800000000001E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99825390000000003</v>
+        <v>0.99831789999999998</v>
       </c>
       <c r="H30" s="3">
-        <v>6.7938189999999996E-2</v>
+        <v>6.7765599999999995E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>0.92534510000000003</v>
+        <v>0.96407609999999999</v>
       </c>
       <c r="J30" s="3">
-        <v>20.020700000000001</v>
+        <v>19.639130000000002</v>
       </c>
       <c r="K30" s="3">
-        <v>0.95725879999999997</v>
+        <v>5.1819470000000001</v>
       </c>
       <c r="L30" s="3">
-        <v>2.8348300000000002</v>
+        <v>12.566689999999999</v>
       </c>
       <c r="M30" s="3">
-        <v>0.6730199</v>
+        <v>3.9415900000000001</v>
       </c>
       <c r="N30" s="3">
-        <v>0.2877537</v>
+        <v>0.27931119999999998</v>
       </c>
       <c r="O30" s="3">
-        <v>996.35940000000005</v>
+        <v>996.37120000000004</v>
       </c>
       <c r="P30" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904289120000001</v>
       </c>
       <c r="Q30" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036864829999999</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45131.473530092589</v>
+        <v>45131.473773148151</v>
       </c>
       <c r="B31" s="3">
-        <v>9.2368159999999992</v>
+        <v>9.1724130000000006</v>
       </c>
       <c r="C31" s="3">
-        <v>8.1224720000000001</v>
+        <v>8.4024769999999993</v>
       </c>
       <c r="D31" s="3">
-        <v>94.924239999999998</v>
+        <v>93.410520000000005</v>
       </c>
       <c r="E31" s="3">
-        <v>104.8999</v>
+        <v>104.2122</v>
       </c>
       <c r="F31" s="3">
-        <v>4.916856E-2</v>
+        <v>4.8830770000000003E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99825450000000004</v>
+        <v>0.99833090000000002</v>
       </c>
       <c r="H31" s="3">
-        <v>6.7925780000000005E-2</v>
+        <v>6.7737919999999993E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>0.9230083</v>
+        <v>1.0505359999999999</v>
       </c>
       <c r="J31" s="3">
-        <v>20.021000000000001</v>
+        <v>19.601880000000001</v>
       </c>
       <c r="K31" s="3">
-        <v>0.99980239999999998</v>
+        <v>5.8918679999999997</v>
       </c>
       <c r="L31" s="3">
-        <v>2.9328650000000001</v>
+        <v>14.218249999999999</v>
       </c>
       <c r="M31" s="3">
-        <v>0.70293099999999997</v>
+        <v>4.1761189999999999</v>
       </c>
       <c r="N31" s="3">
-        <v>0.28792279999999998</v>
+        <v>0.27925499999999998</v>
       </c>
       <c r="O31" s="3">
-        <v>996.3596</v>
+        <v>996.37919999999997</v>
       </c>
       <c r="P31" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904289120000001</v>
       </c>
       <c r="Q31" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036864829999999</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45131.473541666666</v>
+        <v>45131.47378472222</v>
       </c>
       <c r="B32" s="3">
-        <v>9.2355719999999994</v>
+        <v>9.1738330000000001</v>
       </c>
       <c r="C32" s="3">
-        <v>8.1160160000000001</v>
+        <v>8.4013559999999998</v>
       </c>
       <c r="D32" s="3">
-        <v>94.927689999999998</v>
+        <v>93.398899999999998</v>
       </c>
       <c r="E32" s="3">
-        <v>104.90309999999999</v>
+        <v>104.20829999999999</v>
       </c>
       <c r="F32" s="3">
-        <v>4.9168759999999999E-2</v>
+        <v>4.8828870000000003E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99825509999999995</v>
+        <v>0.99833170000000004</v>
       </c>
       <c r="H32" s="3">
-        <v>6.7913379999999995E-2</v>
+        <v>6.7735429999999999E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>0.92067149999999998</v>
+        <v>1.0555110000000001</v>
       </c>
       <c r="J32" s="3">
-        <v>20.02131</v>
+        <v>19.598559999999999</v>
       </c>
       <c r="K32" s="3">
-        <v>1.042346</v>
+        <v>5.9391340000000001</v>
       </c>
       <c r="L32" s="3">
-        <v>3.0308999999999999</v>
+        <v>14.32728</v>
       </c>
       <c r="M32" s="3">
-        <v>0.73284210000000005</v>
+        <v>4.2016429999999998</v>
       </c>
       <c r="N32" s="3">
-        <v>0.28809190000000001</v>
+        <v>0.27908339999999998</v>
       </c>
       <c r="O32" s="3">
-        <v>996.35979999999995</v>
+        <v>996.37900000000002</v>
       </c>
       <c r="P32" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904289120000001</v>
       </c>
       <c r="Q32" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036864829999999</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45131.473553240743</v>
+        <v>45131.473796296297</v>
       </c>
       <c r="B33" s="3">
-        <v>9.1035900000000005</v>
+        <v>9.1752540000000007</v>
       </c>
       <c r="C33" s="3">
-        <v>8.3040959999999995</v>
+        <v>8.4002330000000001</v>
       </c>
       <c r="D33" s="3">
-        <v>94.278469999999999</v>
+        <v>93.387270000000001</v>
       </c>
       <c r="E33" s="3">
-        <v>104.47920000000001</v>
+        <v>104.2045</v>
       </c>
       <c r="F33" s="3">
-        <v>4.8962949999999998E-2</v>
+        <v>4.8826969999999997E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.9982685</v>
+        <v>0.99833260000000001</v>
       </c>
       <c r="H33" s="3">
-        <v>6.7882020000000001E-2</v>
+        <v>6.7732929999999997E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>0.9143597</v>
+        <v>1.060486</v>
       </c>
       <c r="J33" s="3">
-        <v>19.952590000000001</v>
+        <v>19.59524</v>
       </c>
       <c r="K33" s="3">
-        <v>1.5893969999999999</v>
+        <v>5.9863999999999997</v>
       </c>
       <c r="L33" s="3">
-        <v>4.2941149999999997</v>
+        <v>14.43632</v>
       </c>
       <c r="M33" s="3">
-        <v>1.1174580000000001</v>
+        <v>4.2271679999999998</v>
       </c>
       <c r="N33" s="3">
-        <v>0.29581030000000003</v>
+        <v>0.27891189999999999</v>
       </c>
       <c r="O33" s="3">
-        <v>996.351</v>
+        <v>996.37890000000004</v>
       </c>
       <c r="P33" s="3">
-        <v>46.904293090000003</v>
+        <v>46.904289120000001</v>
       </c>
       <c r="Q33" s="3">
-        <v>-91.036911480000001</v>
+        <v>-91.036864829999999</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45131.473564814813</v>
+        <v>45131.473807870374</v>
       </c>
       <c r="B34" s="3">
-        <v>9.0976499999999998</v>
+        <v>9.0735340000000004</v>
       </c>
       <c r="C34" s="3">
-        <v>8.3108020000000007</v>
+        <v>8.2615499999999997</v>
       </c>
       <c r="D34" s="3">
-        <v>94.2453</v>
+        <v>93.145809999999997</v>
       </c>
       <c r="E34" s="3">
-        <v>104.4572</v>
+        <v>104.0065</v>
       </c>
       <c r="F34" s="3">
-        <v>4.8952240000000001E-2</v>
+        <v>4.8730660000000002E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99826950000000003</v>
+        <v>0.99833890000000003</v>
       </c>
       <c r="H34" s="3">
-        <v>6.7875000000000005E-2</v>
+        <v>6.7604209999999998E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>0.91316149999999996</v>
+        <v>1.0354410000000001</v>
       </c>
       <c r="J34" s="3">
-        <v>19.949290000000001</v>
+        <v>19.536300000000001</v>
       </c>
       <c r="K34" s="3">
-        <v>1.63524</v>
+        <v>6.3988389999999997</v>
       </c>
       <c r="L34" s="3">
-        <v>4.3998860000000004</v>
+        <v>15.388260000000001</v>
       </c>
       <c r="M34" s="3">
-        <v>1.149688</v>
+        <v>4.7069169999999998</v>
       </c>
       <c r="N34" s="3">
-        <v>0.29621380000000003</v>
+        <v>0.28672360000000002</v>
       </c>
       <c r="O34" s="3">
-        <v>996.35050000000001</v>
+        <v>996.36220000000003</v>
       </c>
       <c r="P34" s="3">
-        <v>46.904313119999998</v>
+        <v>46.904289120000001</v>
       </c>
       <c r="Q34" s="3">
-        <v>-91.036915539999995</v>
+        <v>-91.036864829999999</v>
       </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45131.473576388889</v>
+        <v>45131.473819444444</v>
       </c>
       <c r="B35" s="3">
-        <v>9.0917080000000006</v>
+        <v>9.0686330000000002</v>
       </c>
       <c r="C35" s="3">
-        <v>8.3175080000000001</v>
+        <v>8.2538830000000001</v>
       </c>
       <c r="D35" s="3">
-        <v>94.212130000000002</v>
+        <v>93.129840000000002</v>
       </c>
       <c r="E35" s="3">
-        <v>104.43519999999999</v>
+        <v>103.9954</v>
       </c>
       <c r="F35" s="3">
-        <v>4.8941539999999999E-2</v>
+        <v>4.8725240000000003E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.9982704</v>
+        <v>0.99833950000000005</v>
       </c>
       <c r="H35" s="3">
-        <v>6.7867979999999994E-2</v>
+        <v>6.7596989999999996E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>0.91196319999999997</v>
+        <v>1.035957</v>
       </c>
       <c r="J35" s="3">
-        <v>19.945979999999999</v>
+        <v>19.53247</v>
       </c>
       <c r="K35" s="3">
-        <v>1.6810830000000001</v>
+        <v>6.4351349999999998</v>
       </c>
       <c r="L35" s="3">
-        <v>4.5056570000000002</v>
+        <v>15.472020000000001</v>
       </c>
       <c r="M35" s="3">
-        <v>1.1819189999999999</v>
+        <v>4.7367379999999999</v>
       </c>
       <c r="N35" s="3">
-        <v>0.29661729999999997</v>
+        <v>0.2871206</v>
       </c>
       <c r="O35" s="3">
-        <v>996.3501</v>
+        <v>996.36149999999998</v>
       </c>
       <c r="P35" s="3">
-        <v>46.904313119999998</v>
+        <v>46.904289120000001</v>
       </c>
       <c r="Q35" s="3">
-        <v>-91.036915539999995</v>
+        <v>-91.036864829999999</v>
       </c>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45131.473587962966</v>
+        <v>45131.47383101852</v>
       </c>
       <c r="B36" s="3">
-        <v>9.1802320000000002</v>
+        <v>9.0637319999999999</v>
       </c>
       <c r="C36" s="3">
-        <v>8.1927800000000008</v>
+        <v>8.2462169999999997</v>
       </c>
       <c r="D36" s="3">
-        <v>94.184510000000003</v>
+        <v>93.113879999999995</v>
       </c>
       <c r="E36" s="3">
-        <v>104.4987</v>
+        <v>103.9843</v>
       </c>
       <c r="F36" s="3">
-        <v>4.8971960000000002E-2</v>
+        <v>4.8719829999999999E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99828519999999998</v>
+        <v>0.99834009999999995</v>
       </c>
       <c r="H36" s="3">
-        <v>6.7922220000000005E-2</v>
+        <v>6.7589769999999993E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>0.9921662</v>
+        <v>1.0364720000000001</v>
       </c>
       <c r="J36" s="3">
-        <v>19.840479999999999</v>
+        <v>19.52863</v>
       </c>
       <c r="K36" s="3">
-        <v>2.7474699999999999</v>
+        <v>6.4714309999999999</v>
       </c>
       <c r="L36" s="3">
-        <v>6.9649869999999998</v>
+        <v>15.555770000000001</v>
       </c>
       <c r="M36" s="3">
-        <v>1.931664</v>
+        <v>4.766559</v>
       </c>
       <c r="N36" s="3">
-        <v>0.28898449999999998</v>
+        <v>0.28751759999999998</v>
       </c>
       <c r="O36" s="3">
-        <v>996.39300000000003</v>
+        <v>996.36080000000004</v>
       </c>
       <c r="P36" s="3">
-        <v>46.904308890000003</v>
+        <v>46.904301680000003</v>
       </c>
       <c r="Q36" s="3">
-        <v>-91.03690254</v>
+        <v>-91.036860270000005</v>
       </c>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45131.473599537036</v>
+        <v>45131.47384259259</v>
       </c>
       <c r="B37" s="3">
-        <v>9.1819520000000008</v>
+        <v>9.1558119999999992</v>
       </c>
       <c r="C37" s="3">
-        <v>8.1903260000000007</v>
+        <v>8.4877990000000008</v>
       </c>
       <c r="D37" s="3">
-        <v>94.169200000000004</v>
+        <v>92.959440000000001</v>
       </c>
       <c r="E37" s="3">
-        <v>104.49290000000001</v>
+        <v>103.9687</v>
       </c>
       <c r="F37" s="3">
-        <v>4.8969119999999998E-2</v>
+        <v>4.8711579999999997E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99828620000000001</v>
+        <v>0.99835430000000003</v>
       </c>
       <c r="H37" s="3">
-        <v>6.792426E-2</v>
+        <v>6.7579669999999994E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>0.99615849999999995</v>
+        <v>1.0702940000000001</v>
       </c>
       <c r="J37" s="3">
-        <v>19.833559999999999</v>
+        <v>19.491160000000001</v>
       </c>
       <c r="K37" s="3">
-        <v>2.8146279999999999</v>
+        <v>7.2865679999999999</v>
       </c>
       <c r="L37" s="3">
-        <v>7.1199029999999999</v>
+        <v>17.436350000000001</v>
       </c>
       <c r="M37" s="3">
-        <v>1.9788809999999999</v>
+        <v>5.1490470000000004</v>
       </c>
       <c r="N37" s="3">
-        <v>0.2887575</v>
+        <v>0.29534640000000001</v>
       </c>
       <c r="O37" s="3">
-        <v>996.39499999999998</v>
+        <v>996.39449999999999</v>
       </c>
       <c r="P37" s="3">
-        <v>46.904308890000003</v>
+        <v>46.904301680000003</v>
       </c>
       <c r="Q37" s="3">
-        <v>-91.03690254</v>
+        <v>-91.036860270000005</v>
       </c>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45131.473611111112</v>
+        <v>45131.473854166667</v>
       </c>
       <c r="B38" s="3">
-        <v>9.1836710000000004</v>
+        <v>9.1584769999999995</v>
       </c>
       <c r="C38" s="3">
-        <v>8.1878709999999995</v>
+        <v>8.4974609999999995</v>
       </c>
       <c r="D38" s="3">
-        <v>94.153880000000001</v>
+        <v>92.946349999999995</v>
       </c>
       <c r="E38" s="3">
-        <v>104.4871</v>
+        <v>103.96380000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>4.8966280000000001E-2</v>
+        <v>4.8709139999999998E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99828729999999999</v>
+        <v>0.9983552</v>
       </c>
       <c r="H38" s="3">
-        <v>6.7926310000000004E-2</v>
+        <v>6.7576449999999996E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>1.000151</v>
+        <v>1.0715250000000001</v>
       </c>
       <c r="J38" s="3">
-        <v>19.826630000000002</v>
+        <v>19.487970000000001</v>
       </c>
       <c r="K38" s="3">
-        <v>2.8817870000000001</v>
+        <v>7.3376150000000004</v>
       </c>
       <c r="L38" s="3">
-        <v>7.2748200000000001</v>
+        <v>17.554130000000001</v>
       </c>
       <c r="M38" s="3">
-        <v>2.0260980000000002</v>
+        <v>5.1790919999999998</v>
       </c>
       <c r="N38" s="3">
-        <v>0.28853050000000002</v>
+        <v>0.29591499999999998</v>
       </c>
       <c r="O38" s="3">
-        <v>996.39710000000002</v>
+        <v>996.39589999999998</v>
       </c>
       <c r="P38" s="3">
-        <v>46.904308890000003</v>
+        <v>46.904287480000001</v>
       </c>
       <c r="Q38" s="3">
-        <v>-91.03690254</v>
+        <v>-91.036862400000004</v>
       </c>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45131.473622685182</v>
+        <v>45131.473865740743</v>
       </c>
       <c r="B39" s="3">
-        <v>9.1576360000000001</v>
+        <v>9.1611410000000006</v>
       </c>
       <c r="C39" s="3">
-        <v>8.3034820000000007</v>
+        <v>8.5071250000000003</v>
       </c>
       <c r="D39" s="3">
-        <v>94.078509999999994</v>
+        <v>92.933250000000001</v>
       </c>
       <c r="E39" s="3">
-        <v>104.4847</v>
+        <v>103.9588</v>
       </c>
       <c r="F39" s="3">
-        <v>4.8964800000000003E-2</v>
+        <v>4.8706680000000002E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99828859999999997</v>
+        <v>0.99835609999999997</v>
       </c>
       <c r="H39" s="3">
-        <v>6.7915959999999997E-2</v>
+        <v>6.7573220000000003E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>0.93703610000000004</v>
+        <v>1.072757</v>
       </c>
       <c r="J39" s="3">
-        <v>19.794239999999999</v>
+        <v>19.484780000000001</v>
       </c>
       <c r="K39" s="3">
-        <v>3.3682189999999999</v>
+        <v>7.3886620000000001</v>
       </c>
       <c r="L39" s="3">
-        <v>8.3946529999999999</v>
+        <v>17.671900000000001</v>
       </c>
       <c r="M39" s="3">
-        <v>2.368093</v>
+        <v>5.209136</v>
       </c>
       <c r="N39" s="3">
-        <v>0.28831279999999998</v>
+        <v>0.29648350000000001</v>
       </c>
       <c r="O39" s="3">
-        <v>996.34690000000001</v>
+        <v>996.39729999999997</v>
       </c>
       <c r="P39" s="3">
-        <v>46.904308890000003</v>
+        <v>46.904287480000001</v>
       </c>
       <c r="Q39" s="3">
-        <v>-91.03690254</v>
+        <v>-91.036862400000004</v>
       </c>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45131.473634259259</v>
+        <v>45131.473877314813</v>
       </c>
       <c r="B40" s="3">
-        <v>9.1581440000000001</v>
+        <v>9.0754160000000006</v>
       </c>
       <c r="C40" s="3">
-        <v>8.3068460000000002</v>
+        <v>8.4945959999999996</v>
       </c>
       <c r="D40" s="3">
-        <v>94.073909999999998</v>
+        <v>92.842640000000003</v>
       </c>
       <c r="E40" s="3">
-        <v>104.4858</v>
+        <v>103.9584</v>
       </c>
       <c r="F40" s="3">
-        <v>4.8965330000000001E-2</v>
+        <v>4.8705999999999999E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99828899999999998</v>
+        <v>0.99836519999999995</v>
       </c>
       <c r="H40" s="3">
-        <v>6.7916509999999999E-2</v>
+        <v>6.7572939999999998E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.93544349999999998</v>
+        <v>1.017174</v>
       </c>
       <c r="J40" s="3">
-        <v>19.790320000000001</v>
+        <v>19.406559999999999</v>
       </c>
       <c r="K40" s="3">
-        <v>3.4163100000000002</v>
+        <v>7.649235</v>
       </c>
       <c r="L40" s="3">
-        <v>8.5054590000000001</v>
+        <v>18.272870000000001</v>
       </c>
       <c r="M40" s="3">
-        <v>2.4019050000000002</v>
+        <v>5.3867599999999998</v>
       </c>
       <c r="N40" s="3">
-        <v>0.28814139999999999</v>
+        <v>0.28146650000000001</v>
       </c>
       <c r="O40" s="3">
-        <v>996.34519999999998</v>
+        <v>996.40660000000003</v>
       </c>
       <c r="P40" s="3">
-        <v>46.904301719999999</v>
+        <v>46.904287480000001</v>
       </c>
       <c r="Q40" s="3">
-        <v>-91.036891600000004</v>
+        <v>-91.036862400000004</v>
       </c>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45131.473645833335</v>
+        <v>45131.47388888889</v>
       </c>
       <c r="B41" s="3">
-        <v>9.1586529999999993</v>
+        <v>9.0728860000000005</v>
       </c>
       <c r="C41" s="3">
-        <v>8.3102079999999994</v>
+        <v>8.4990389999999998</v>
       </c>
       <c r="D41" s="3">
-        <v>94.069310000000002</v>
+        <v>92.834720000000004</v>
       </c>
       <c r="E41" s="3">
-        <v>104.48699999999999</v>
+        <v>103.9581</v>
       </c>
       <c r="F41" s="3">
-        <v>4.896586E-2</v>
+        <v>4.8705819999999997E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99828950000000005</v>
+        <v>0.99836590000000003</v>
       </c>
       <c r="H41" s="3">
-        <v>6.7917050000000007E-2</v>
+        <v>6.7572740000000006E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>0.93385090000000004</v>
+        <v>1.0149889999999999</v>
       </c>
       <c r="J41" s="3">
-        <v>19.7864</v>
+        <v>19.401689999999999</v>
       </c>
       <c r="K41" s="3">
-        <v>3.4644010000000001</v>
+        <v>7.6799150000000003</v>
       </c>
       <c r="L41" s="3">
-        <v>8.616263</v>
+        <v>18.343640000000001</v>
       </c>
       <c r="M41" s="3">
-        <v>2.4357160000000002</v>
+        <v>5.4039580000000003</v>
       </c>
       <c r="N41" s="3">
-        <v>0.28797</v>
+        <v>0.28084179999999997</v>
       </c>
       <c r="O41" s="3">
-        <v>996.34349999999995</v>
+        <v>996.40769999999998</v>
       </c>
       <c r="P41" s="3">
-        <v>46.904301719999999</v>
+        <v>46.904287480000001</v>
       </c>
       <c r="Q41" s="3">
-        <v>-91.036891600000004</v>
+        <v>-91.036862400000004</v>
       </c>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45131.473657407405</v>
+        <v>45131.473900462966</v>
       </c>
       <c r="B42" s="3">
-        <v>9.1291569999999993</v>
+        <v>9.0703569999999996</v>
       </c>
       <c r="C42" s="3">
-        <v>8.2290320000000001</v>
+        <v>8.5034810000000007</v>
       </c>
       <c r="D42" s="3">
-        <v>93.944360000000003</v>
+        <v>92.826790000000003</v>
       </c>
       <c r="E42" s="3">
-        <v>104.4158</v>
+        <v>103.95780000000001</v>
       </c>
       <c r="F42" s="3">
-        <v>4.893111E-2</v>
+        <v>4.8705640000000001E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.9982955</v>
+        <v>0.99836670000000005</v>
       </c>
       <c r="H42" s="3">
-        <v>6.7851910000000001E-2</v>
+        <v>6.7572549999999995E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>0.93503619999999998</v>
+        <v>1.012804</v>
       </c>
       <c r="J42" s="3">
-        <v>19.750240000000002</v>
+        <v>19.396830000000001</v>
       </c>
       <c r="K42" s="3">
-        <v>3.9082750000000002</v>
+        <v>7.7105949999999996</v>
       </c>
       <c r="L42" s="3">
-        <v>10.510949999999999</v>
+        <v>18.41441</v>
       </c>
       <c r="M42" s="3">
-        <v>3.0131260000000002</v>
+        <v>5.4211559999999999</v>
       </c>
       <c r="N42" s="3">
-        <v>0.28799999999999998</v>
+        <v>0.2802171</v>
       </c>
       <c r="O42" s="3">
-        <v>996.35889999999995</v>
+        <v>996.40890000000002</v>
       </c>
       <c r="P42" s="3">
-        <v>46.904293170000003</v>
+        <v>46.904287480000001</v>
       </c>
       <c r="Q42" s="3">
-        <v>-91.036880479999994</v>
+        <v>-91.036862400000004</v>
       </c>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45131.473668981482</v>
+        <v>45131.473912037036</v>
       </c>
       <c r="B43" s="3">
-        <v>9.1270240000000005</v>
+        <v>9.0678280000000004</v>
       </c>
       <c r="C43" s="3">
-        <v>8.2272549999999995</v>
+        <v>8.5079220000000007</v>
       </c>
       <c r="D43" s="3">
-        <v>93.936130000000006</v>
+        <v>92.818860000000001</v>
       </c>
       <c r="E43" s="3">
-        <v>104.41200000000001</v>
+        <v>103.9575</v>
       </c>
       <c r="F43" s="3">
-        <v>4.8929220000000002E-2</v>
+        <v>4.8705449999999997E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99829579999999996</v>
+        <v>0.99836749999999996</v>
       </c>
       <c r="H43" s="3">
-        <v>6.7848270000000002E-2</v>
+        <v>6.7572359999999998E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>0.93376139999999996</v>
+        <v>1.0106189999999999</v>
       </c>
       <c r="J43" s="3">
-        <v>19.747669999999999</v>
+        <v>19.391960000000001</v>
       </c>
       <c r="K43" s="3">
-        <v>3.9415840000000002</v>
+        <v>7.7412749999999999</v>
       </c>
       <c r="L43" s="3">
-        <v>10.633369999999999</v>
+        <v>18.48518</v>
       </c>
       <c r="M43" s="3">
-        <v>3.050449</v>
+        <v>5.4383540000000004</v>
       </c>
       <c r="N43" s="3">
-        <v>0.28799999999999998</v>
+        <v>0.27959250000000002</v>
       </c>
       <c r="O43" s="3">
-        <v>996.35860000000002</v>
+        <v>996.41010000000006</v>
       </c>
       <c r="P43" s="3">
-        <v>46.904293170000003</v>
+        <v>46.904297460000002</v>
       </c>
       <c r="Q43" s="3">
-        <v>-91.036880479999994</v>
+        <v>-91.036863659999995</v>
       </c>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45131.473680555559</v>
+        <v>45131.473923611113</v>
       </c>
       <c r="B44" s="3">
-        <v>9.1248909999999999</v>
+        <v>9.1611360000000008</v>
       </c>
       <c r="C44" s="3">
-        <v>8.2254780000000007</v>
+        <v>8.5088229999999996</v>
       </c>
       <c r="D44" s="3">
-        <v>93.927890000000005</v>
+        <v>92.765280000000004</v>
       </c>
       <c r="E44" s="3">
-        <v>104.4081</v>
+        <v>104.0273</v>
       </c>
       <c r="F44" s="3">
-        <v>4.8927320000000003E-2</v>
+        <v>4.8738700000000003E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99829619999999997</v>
+        <v>0.99837819999999999</v>
       </c>
       <c r="H44" s="3">
-        <v>6.7844619999999994E-2</v>
+        <v>6.7617709999999998E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>0.93248660000000005</v>
+        <v>1.139005</v>
       </c>
       <c r="J44" s="3">
-        <v>19.74511</v>
+        <v>19.373619999999999</v>
       </c>
       <c r="K44" s="3">
-        <v>3.9748920000000001</v>
+        <v>8.9514859999999992</v>
       </c>
       <c r="L44" s="3">
-        <v>10.755789999999999</v>
+        <v>21.27684</v>
       </c>
       <c r="M44" s="3">
-        <v>3.087771</v>
+        <v>6.2935210000000001</v>
       </c>
       <c r="N44" s="3">
-        <v>0.28799999999999998</v>
+        <v>0.27145609999999998</v>
       </c>
       <c r="O44" s="3">
-        <v>996.35829999999999</v>
+        <v>996.4271</v>
       </c>
       <c r="P44" s="3">
-        <v>46.904293170000003</v>
+        <v>46.904297460000002</v>
       </c>
       <c r="Q44" s="3">
-        <v>-91.036880479999994</v>
+        <v>-91.036863659999995</v>
       </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45131.473692129628</v>
+        <v>45131.473935185182</v>
       </c>
       <c r="B45" s="3">
-        <v>9.1227590000000003</v>
+        <v>9.1639630000000007</v>
       </c>
       <c r="C45" s="3">
-        <v>8.2237010000000001</v>
+        <v>8.5087109999999999</v>
       </c>
       <c r="D45" s="3">
-        <v>93.919650000000004</v>
+        <v>92.760459999999995</v>
       </c>
       <c r="E45" s="3">
-        <v>104.4042</v>
+        <v>104.0307</v>
       </c>
       <c r="F45" s="3">
-        <v>4.8925429999999999E-2</v>
+        <v>4.8740350000000002E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99829659999999998</v>
+        <v>0.99837889999999996</v>
       </c>
       <c r="H45" s="3">
-        <v>6.784097E-2</v>
+        <v>6.7619979999999996E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>0.93121180000000003</v>
+        <v>1.1442479999999999</v>
       </c>
       <c r="J45" s="3">
-        <v>19.742550000000001</v>
+        <v>19.370920000000002</v>
       </c>
       <c r="K45" s="3">
-        <v>4.0082009999999997</v>
+        <v>9.0187480000000004</v>
       </c>
       <c r="L45" s="3">
-        <v>10.878209999999999</v>
+        <v>21.431999999999999</v>
       </c>
       <c r="M45" s="3">
-        <v>3.1250939999999998</v>
+        <v>6.3408110000000004</v>
       </c>
       <c r="N45" s="3">
-        <v>0.28799999999999998</v>
+        <v>0.27071499999999998</v>
       </c>
       <c r="O45" s="3">
-        <v>996.35810000000004</v>
+        <v>996.42819999999995</v>
       </c>
       <c r="P45" s="3">
-        <v>46.904293170000003</v>
+        <v>46.904297460000002</v>
       </c>
       <c r="Q45" s="3">
-        <v>-91.036880479999994</v>
+        <v>-91.036863659999995</v>
       </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45131.473703703705</v>
+        <v>45131.473946759259</v>
       </c>
       <c r="B46" s="3">
-        <v>9.1242280000000004</v>
+        <v>9.1667909999999999</v>
       </c>
       <c r="C46" s="3">
-        <v>8.3972320000000007</v>
+        <v>8.5085979999999992</v>
       </c>
       <c r="D46" s="3">
-        <v>93.763819999999996</v>
+        <v>92.75564</v>
       </c>
       <c r="E46" s="3">
-        <v>104.3501</v>
+        <v>104.0342</v>
       </c>
       <c r="F46" s="3">
-        <v>4.8898700000000003E-2</v>
+        <v>4.8742000000000001E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99830750000000001</v>
+        <v>0.99837960000000003</v>
       </c>
       <c r="H46" s="3">
-        <v>6.7825449999999995E-2</v>
+        <v>6.7622249999999995E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>0.93270520000000001</v>
+        <v>1.1494899999999999</v>
       </c>
       <c r="J46" s="3">
-        <v>19.71705</v>
+        <v>19.368220000000001</v>
       </c>
       <c r="K46" s="3">
-        <v>4.526446</v>
+        <v>9.0860099999999999</v>
       </c>
       <c r="L46" s="3">
-        <v>11.165660000000001</v>
+        <v>21.587150000000001</v>
       </c>
       <c r="M46" s="3">
-        <v>3.2122809999999999</v>
+        <v>6.3881009999999998</v>
       </c>
       <c r="N46" s="3">
-        <v>0.28799999999999998</v>
+        <v>0.26997389999999999</v>
       </c>
       <c r="O46" s="3">
-        <v>996.39459999999997</v>
+        <v>996.42930000000001</v>
       </c>
       <c r="P46" s="3">
-        <v>46.904293170000003</v>
+        <v>46.904297460000002</v>
       </c>
       <c r="Q46" s="3">
-        <v>-91.036880479999994</v>
+        <v>-91.036863659999995</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45131.473715277774</v>
+        <v>45131.473958333336</v>
       </c>
       <c r="B47" s="3">
-        <v>9.1236339999999991</v>
+        <v>9.2272219999999994</v>
       </c>
       <c r="C47" s="3">
-        <v>8.4042049999999993</v>
+        <v>8.4122380000000003</v>
       </c>
       <c r="D47" s="3">
-        <v>93.753119999999996</v>
+        <v>92.758070000000004</v>
       </c>
       <c r="E47" s="3">
-        <v>104.3458</v>
+        <v>104.04430000000001</v>
       </c>
       <c r="F47" s="3">
-        <v>4.889657E-2</v>
+        <v>4.8746780000000003E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99830819999999998</v>
+        <v>0.99838130000000003</v>
       </c>
       <c r="H47" s="3">
-        <v>6.7823209999999995E-2</v>
+        <v>6.7628770000000005E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>0.93277980000000005</v>
+        <v>1.1386579999999999</v>
       </c>
       <c r="J47" s="3">
-        <v>19.714929999999999</v>
+        <v>19.325610000000001</v>
       </c>
       <c r="K47" s="3">
-        <v>4.5628330000000004</v>
+        <v>9.7434589999999996</v>
       </c>
       <c r="L47" s="3">
-        <v>11.223369999999999</v>
+        <v>23.103670000000001</v>
       </c>
       <c r="M47" s="3">
-        <v>3.2298469999999999</v>
+        <v>6.850333</v>
       </c>
       <c r="N47" s="3">
-        <v>0.28799999999999998</v>
+        <v>0.2780398</v>
       </c>
       <c r="O47" s="3">
-        <v>996.39670000000001</v>
+        <v>996.42049999999995</v>
       </c>
       <c r="P47" s="3">
-        <v>46.904289120000001</v>
+        <v>46.904297460000002</v>
       </c>
       <c r="Q47" s="3">
-        <v>-91.036864829999999</v>
+        <v>-91.036863659999995</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45131.473726851851</v>
+        <v>45131.473969907405</v>
       </c>
       <c r="B48" s="3">
-        <v>9.1230399999999996</v>
+        <v>9.2322030000000002</v>
       </c>
       <c r="C48" s="3">
-        <v>8.4111790000000006</v>
+        <v>8.4075550000000003</v>
       </c>
       <c r="D48" s="3">
-        <v>93.742429999999999</v>
+        <v>92.756889999999999</v>
       </c>
       <c r="E48" s="3">
-        <v>104.3415</v>
+        <v>104.0463</v>
       </c>
       <c r="F48" s="3">
-        <v>4.8894449999999999E-2</v>
+        <v>4.8747730000000003E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99830890000000005</v>
+        <v>0.99838159999999998</v>
       </c>
       <c r="H48" s="3">
-        <v>6.7820969999999994E-2</v>
+        <v>6.763007E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>0.93285430000000003</v>
+        <v>1.1408419999999999</v>
       </c>
       <c r="J48" s="3">
-        <v>19.712810000000001</v>
+        <v>19.32301</v>
       </c>
       <c r="K48" s="3">
-        <v>4.5992199999999999</v>
+        <v>9.8027990000000003</v>
       </c>
       <c r="L48" s="3">
-        <v>11.281079999999999</v>
+        <v>23.240549999999999</v>
       </c>
       <c r="M48" s="3">
-        <v>3.2474129999999999</v>
+        <v>6.8920539999999999</v>
       </c>
       <c r="N48" s="3">
-        <v>0.28799999999999998</v>
+        <v>0.27825699999999998</v>
       </c>
       <c r="O48" s="3">
-        <v>996.39890000000003</v>
+        <v>996.42039999999997</v>
       </c>
       <c r="P48" s="3">
-        <v>46.904289120000001</v>
+        <v>46.904297460000002</v>
       </c>
       <c r="Q48" s="3">
-        <v>-91.036864829999999</v>
+        <v>-91.036863659999995</v>
       </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45131.473738425928</v>
+        <v>45131.473981481482</v>
       </c>
       <c r="B49" s="3">
-        <v>9.1540949999999999</v>
+        <v>9.2371829999999999</v>
       </c>
       <c r="C49" s="3">
-        <v>8.4228170000000002</v>
+        <v>8.4028720000000003</v>
       </c>
       <c r="D49" s="3">
-        <v>93.59796</v>
+        <v>92.755709999999993</v>
       </c>
       <c r="E49" s="3">
-        <v>104.2646</v>
+        <v>104.0483</v>
       </c>
       <c r="F49" s="3">
-        <v>4.8856829999999997E-2</v>
+        <v>4.8748680000000003E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>0.9983166</v>
+        <v>0.99838199999999999</v>
       </c>
       <c r="H49" s="3">
-        <v>6.7771419999999999E-2</v>
+        <v>6.7631360000000001E-2</v>
       </c>
       <c r="I49" s="3">
-        <v>0.96119060000000001</v>
+        <v>1.143025</v>
       </c>
       <c r="J49" s="3">
-        <v>19.646989999999999</v>
+        <v>19.320399999999999</v>
       </c>
       <c r="K49" s="3">
-        <v>5.1069969999999998</v>
+        <v>9.8621390000000009</v>
       </c>
       <c r="L49" s="3">
-        <v>12.43296</v>
+        <v>23.37743</v>
       </c>
       <c r="M49" s="3">
-        <v>3.872986</v>
+        <v>6.9337739999999997</v>
       </c>
       <c r="N49" s="3">
-        <v>0.28011190000000002</v>
+        <v>0.27847420000000001</v>
       </c>
       <c r="O49" s="3">
-        <v>996.37239999999997</v>
+        <v>996.42039999999997</v>
       </c>
       <c r="P49" s="3">
-        <v>46.904289120000001</v>
+        <v>46.904297460000002</v>
       </c>
       <c r="Q49" s="3">
-        <v>-91.036864829999999</v>
+        <v>-91.036863659999995</v>
       </c>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45131.473749999997</v>
+        <v>45131.473993055559</v>
       </c>
       <c r="B50" s="3">
-        <v>9.1556619999999995</v>
+        <v>9.2024089999999994</v>
       </c>
       <c r="C50" s="3">
-        <v>8.4270940000000003</v>
+        <v>8.5898020000000006</v>
       </c>
       <c r="D50" s="3">
-        <v>93.587149999999994</v>
+        <v>92.722009999999997</v>
       </c>
       <c r="E50" s="3">
-        <v>104.2594</v>
+        <v>104.0626</v>
       </c>
       <c r="F50" s="3">
-        <v>4.8854309999999998E-2</v>
+        <v>4.8778210000000002E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99831720000000002</v>
+        <v>0.99839040000000001</v>
       </c>
       <c r="H50" s="3">
-        <v>6.7768510000000004E-2</v>
+        <v>6.7671609999999993E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>0.96263339999999997</v>
+        <v>1.0369349999999999</v>
       </c>
       <c r="J50" s="3">
-        <v>19.643059999999998</v>
+        <v>19.295819999999999</v>
       </c>
       <c r="K50" s="3">
-        <v>5.1444720000000004</v>
+        <v>10.61655</v>
       </c>
       <c r="L50" s="3">
-        <v>12.49982</v>
+        <v>25.11739</v>
       </c>
       <c r="M50" s="3">
-        <v>3.9072879999999999</v>
+        <v>7.4641799999999998</v>
       </c>
       <c r="N50" s="3">
-        <v>0.2797116</v>
+        <v>0.2864642</v>
       </c>
       <c r="O50" s="3">
-        <v>996.37180000000001</v>
+        <v>996.40279999999996</v>
       </c>
       <c r="P50" s="3">
-        <v>46.904289120000001</v>
+        <v>46.904303929999998</v>
       </c>
       <c r="Q50" s="3">
-        <v>-91.036864829999999</v>
+        <v>-91.036849279999998</v>
       </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45131.473761574074</v>
+        <v>45131.474004629628</v>
       </c>
       <c r="B51" s="3">
-        <v>9.1572289999999992</v>
+        <v>9.2019020000000005</v>
       </c>
       <c r="C51" s="3">
-        <v>8.4313699999999994</v>
+        <v>8.5973480000000002</v>
       </c>
       <c r="D51" s="3">
-        <v>93.576329999999999</v>
+        <v>92.720280000000002</v>
       </c>
       <c r="E51" s="3">
-        <v>104.2543</v>
+        <v>104.0635</v>
       </c>
       <c r="F51" s="3">
-        <v>4.8851800000000001E-2</v>
+        <v>4.8779839999999998E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99831789999999998</v>
+        <v>0.99839089999999997</v>
       </c>
       <c r="H51" s="3">
-        <v>6.7765599999999995E-2</v>
+        <v>6.7673819999999996E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>0.96407609999999999</v>
+        <v>1.0313680000000001</v>
       </c>
       <c r="J51" s="3">
-        <v>19.639130000000002</v>
+        <v>19.29365</v>
       </c>
       <c r="K51" s="3">
-        <v>5.1819470000000001</v>
+        <v>10.66933</v>
       </c>
       <c r="L51" s="3">
-        <v>12.566689999999999</v>
+        <v>25.23912</v>
       </c>
       <c r="M51" s="3">
-        <v>3.9415900000000001</v>
+        <v>7.5012869999999996</v>
       </c>
       <c r="N51" s="3">
-        <v>0.27931119999999998</v>
+        <v>0.28702569999999999</v>
       </c>
       <c r="O51" s="3">
-        <v>996.37120000000004</v>
+        <v>996.40170000000001</v>
       </c>
       <c r="P51" s="3">
-        <v>46.904289120000001</v>
+        <v>46.904303929999998</v>
       </c>
       <c r="Q51" s="3">
-        <v>-91.036864829999999</v>
+        <v>-91.036849279999998</v>
       </c>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45131.473773148151</v>
+        <v>45131.474016203705</v>
       </c>
       <c r="B52" s="3">
-        <v>9.1724130000000006</v>
+        <v>9.2013949999999998</v>
       </c>
       <c r="C52" s="3">
-        <v>8.4024769999999993</v>
+        <v>8.6048950000000008</v>
       </c>
       <c r="D52" s="3">
-        <v>93.410520000000005</v>
+        <v>92.718540000000004</v>
       </c>
       <c r="E52" s="3">
-        <v>104.2122</v>
+        <v>104.0645</v>
       </c>
       <c r="F52" s="3">
-        <v>4.8830770000000003E-2</v>
+        <v>4.8781459999999999E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>0.99833090000000002</v>
+        <v>0.99839140000000004</v>
       </c>
       <c r="H52" s="3">
-        <v>6.7737919999999993E-2</v>
+        <v>6.7676040000000007E-2</v>
       </c>
       <c r="I52" s="3">
-        <v>1.0505359999999999</v>
+        <v>1.0258</v>
       </c>
       <c r="J52" s="3">
-        <v>19.601880000000001</v>
+        <v>19.29148</v>
       </c>
       <c r="K52" s="3">
-        <v>5.8918679999999997</v>
+        <v>10.722110000000001</v>
       </c>
       <c r="L52" s="3">
-        <v>14.218249999999999</v>
+        <v>25.360849999999999</v>
       </c>
       <c r="M52" s="3">
-        <v>4.1761189999999999</v>
+        <v>7.5383930000000001</v>
       </c>
       <c r="N52" s="3">
-        <v>0.27925499999999998</v>
+        <v>0.28758729999999999</v>
       </c>
       <c r="O52" s="3">
-        <v>996.37919999999997</v>
+        <v>996.40070000000003</v>
       </c>
       <c r="P52" s="3">
-        <v>46.904289120000001</v>
+        <v>46.904303929999998</v>
       </c>
       <c r="Q52" s="3">
-        <v>-91.036864829999999</v>
+        <v>-91.036849279999998</v>
       </c>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45131.47378472222</v>
+        <v>45131.474027777775</v>
       </c>
       <c r="B53" s="3">
-        <v>9.1738330000000001</v>
+        <v>9.2493730000000003</v>
       </c>
       <c r="C53" s="3">
-        <v>8.4013559999999998</v>
+        <v>8.6408819999999995</v>
       </c>
       <c r="D53" s="3">
-        <v>93.398899999999998</v>
+        <v>92.729280000000003</v>
       </c>
       <c r="E53" s="3">
-        <v>104.20829999999999</v>
+        <v>104.14239999999999</v>
       </c>
       <c r="F53" s="3">
-        <v>4.8828870000000003E-2</v>
+        <v>4.8796609999999997E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.99833170000000004</v>
+        <v>0.99839359999999999</v>
       </c>
       <c r="H53" s="3">
-        <v>6.7735429999999999E-2</v>
+        <v>6.7696530000000005E-2</v>
       </c>
       <c r="I53" s="3">
-        <v>1.0555110000000001</v>
+        <v>1.1854560000000001</v>
       </c>
       <c r="J53" s="3">
-        <v>19.598559999999999</v>
+        <v>19.262250000000002</v>
       </c>
       <c r="K53" s="3">
-        <v>5.9391340000000001</v>
+        <v>11.21308</v>
       </c>
       <c r="L53" s="3">
-        <v>14.32728</v>
+        <v>26.493459999999999</v>
       </c>
       <c r="M53" s="3">
-        <v>4.2016429999999998</v>
+        <v>7.8835790000000001</v>
       </c>
       <c r="N53" s="3">
-        <v>0.27908339999999998</v>
+        <v>0.27230650000000001</v>
       </c>
       <c r="O53" s="3">
-        <v>996.37900000000002</v>
+        <v>996.35760000000005</v>
       </c>
       <c r="P53" s="3">
-        <v>46.904289120000001</v>
+        <v>46.904303929999998</v>
       </c>
       <c r="Q53" s="3">
-        <v>-91.036864829999999</v>
+        <v>-91.036849279999998</v>
       </c>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45131.473796296297</v>
+        <v>45131.474039351851</v>
       </c>
       <c r="B54" s="3">
-        <v>9.1752540000000007</v>
+        <v>9.2511510000000001</v>
       </c>
       <c r="C54" s="3">
-        <v>8.4002330000000001</v>
+        <v>8.6466410000000007</v>
       </c>
       <c r="D54" s="3">
-        <v>93.387270000000001</v>
+        <v>92.729119999999995</v>
       </c>
       <c r="E54" s="3">
-        <v>104.2045</v>
+        <v>104.1467</v>
       </c>
       <c r="F54" s="3">
-        <v>4.8826969999999997E-2</v>
+        <v>4.8798010000000003E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>0.99833260000000001</v>
+        <v>0.99839389999999995</v>
       </c>
       <c r="H54" s="3">
-        <v>6.7732929999999997E-2</v>
+        <v>6.7698439999999999E-2</v>
       </c>
       <c r="I54" s="3">
-        <v>1.060486</v>
+        <v>1.191532</v>
       </c>
       <c r="J54" s="3">
-        <v>19.59524</v>
+        <v>19.26022</v>
       </c>
       <c r="K54" s="3">
-        <v>5.9863999999999997</v>
+        <v>11.25446</v>
       </c>
       <c r="L54" s="3">
-        <v>14.43632</v>
+        <v>26.588920000000002</v>
       </c>
       <c r="M54" s="3">
-        <v>4.2271679999999998</v>
+        <v>7.9126750000000001</v>
       </c>
       <c r="N54" s="3">
-        <v>0.27891189999999999</v>
+        <v>0.2716808</v>
       </c>
       <c r="O54" s="3">
-        <v>996.37890000000004</v>
+        <v>996.35500000000002</v>
       </c>
       <c r="P54" s="3">
-        <v>46.904289120000001</v>
+        <v>46.904303929999998</v>
       </c>
       <c r="Q54" s="3">
-        <v>-91.036864829999999</v>
+        <v>-91.036849279999998</v>
       </c>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>45131.473807870374</v>
+        <v>45131.474050925928</v>
       </c>
       <c r="B55" s="3">
-        <v>9.0735340000000004</v>
+        <v>9.2529299999999992</v>
       </c>
       <c r="C55" s="3">
-        <v>8.2615499999999997</v>
+        <v>8.6523990000000008</v>
       </c>
       <c r="D55" s="3">
-        <v>93.145809999999997</v>
+        <v>92.728960000000001</v>
       </c>
       <c r="E55" s="3">
-        <v>104.0065</v>
+        <v>104.151</v>
       </c>
       <c r="F55" s="3">
-        <v>4.8730660000000002E-2</v>
+        <v>4.8799420000000003E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>0.99833890000000003</v>
+        <v>0.99839420000000001</v>
       </c>
       <c r="H55" s="3">
-        <v>6.7604209999999998E-2</v>
+        <v>6.7700350000000006E-2</v>
       </c>
       <c r="I55" s="3">
-        <v>1.0354410000000001</v>
+        <v>1.197608</v>
       </c>
       <c r="J55" s="3">
-        <v>19.536300000000001</v>
+        <v>19.258199999999999</v>
       </c>
       <c r="K55" s="3">
-        <v>6.3988389999999997</v>
+        <v>11.29585</v>
       </c>
       <c r="L55" s="3">
-        <v>15.388260000000001</v>
+        <v>26.68439</v>
       </c>
       <c r="M55" s="3">
-        <v>4.7069169999999998</v>
+        <v>7.9417720000000003</v>
       </c>
       <c r="N55" s="3">
-        <v>0.28672360000000002</v>
+        <v>0.27105509999999999</v>
       </c>
       <c r="O55" s="3">
-        <v>996.36220000000003</v>
+        <v>996.35239999999999</v>
       </c>
       <c r="P55" s="3">
-        <v>46.904289120000001</v>
+        <v>46.904303929999998</v>
       </c>
       <c r="Q55" s="3">
-        <v>-91.036864829999999</v>
+        <v>-91.036849279999998</v>
       </c>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>45131.473819444444</v>
+        <v>45131.474062499998</v>
       </c>
       <c r="B56" s="3">
-        <v>9.0686330000000002</v>
+        <v>9.3020750000000003</v>
       </c>
       <c r="C56" s="3">
-        <v>8.2538830000000001</v>
+        <v>8.5385819999999999</v>
       </c>
       <c r="D56" s="3">
-        <v>93.129840000000002</v>
+        <v>92.286850000000001</v>
       </c>
       <c r="E56" s="3">
-        <v>103.9954</v>
+        <v>103.7373</v>
       </c>
       <c r="F56" s="3">
-        <v>4.8725240000000003E-2</v>
+        <v>4.805802E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>0.99833950000000005</v>
+        <v>0.99842310000000001</v>
       </c>
       <c r="H56" s="3">
-        <v>6.7596989999999996E-2</v>
+        <v>6.6708530000000002E-2</v>
       </c>
       <c r="I56" s="3">
-        <v>1.035957</v>
+        <v>1.040044</v>
       </c>
       <c r="J56" s="3">
-        <v>19.53247</v>
+        <v>19.220939999999999</v>
       </c>
       <c r="K56" s="3">
-        <v>6.4351349999999998</v>
+        <v>12.22113</v>
       </c>
       <c r="L56" s="3">
-        <v>15.472020000000001</v>
+        <v>28.818770000000001</v>
       </c>
       <c r="M56" s="3">
-        <v>4.7367379999999999</v>
+        <v>8.5923119999999997</v>
       </c>
       <c r="N56" s="3">
-        <v>0.2871206</v>
+        <v>0.28582920000000001</v>
       </c>
       <c r="O56" s="3">
-        <v>996.36149999999998</v>
+        <v>996.3768</v>
       </c>
       <c r="P56" s="3">
-        <v>46.904289120000001</v>
+        <v>46.904303929999998</v>
       </c>
       <c r="Q56" s="3">
-        <v>-91.036864829999999</v>
+        <v>-91.036849279999998</v>
       </c>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>45131.47383101852</v>
+        <v>45131.474074074074</v>
       </c>
       <c r="B57" s="3">
-        <v>9.0637319999999999</v>
+        <v>9.3056239999999999</v>
       </c>
       <c r="C57" s="3">
-        <v>8.2462169999999997</v>
+        <v>8.5334400000000006</v>
       </c>
       <c r="D57" s="3">
-        <v>93.113879999999995</v>
+        <v>92.264359999999996</v>
       </c>
       <c r="E57" s="3">
-        <v>103.9843</v>
+        <v>103.71769999999999</v>
       </c>
       <c r="F57" s="3">
-        <v>4.8719829999999999E-2</v>
+        <v>4.8020229999999997E-2</v>
       </c>
       <c r="G57" s="3">
-        <v>0.99834009999999995</v>
+        <v>0.9984246</v>
       </c>
       <c r="H57" s="3">
-        <v>6.7589769999999993E-2</v>
+        <v>6.665799E-2</v>
       </c>
       <c r="I57" s="3">
-        <v>1.0364720000000001</v>
+        <v>1.035323</v>
       </c>
       <c r="J57" s="3">
-        <v>19.52863</v>
+        <v>19.218399999999999</v>
       </c>
       <c r="K57" s="3">
-        <v>6.4714309999999999</v>
+        <v>12.278930000000001</v>
       </c>
       <c r="L57" s="3">
-        <v>15.555770000000001</v>
+        <v>28.952100000000002</v>
       </c>
       <c r="M57" s="3">
-        <v>4.766559</v>
+        <v>8.6329469999999997</v>
       </c>
       <c r="N57" s="3">
-        <v>0.28751759999999998</v>
+        <v>0.28626659999999998</v>
       </c>
       <c r="O57" s="3">
-        <v>996.36080000000004</v>
+        <v>996.37720000000002</v>
       </c>
       <c r="P57" s="3">
-        <v>46.904301680000003</v>
+        <v>46.90431727</v>
       </c>
       <c r="Q57" s="3">
-        <v>-91.036860270000005</v>
+        <v>-91.036838630000005</v>
       </c>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>45131.47384259259</v>
+        <v>45131.474085648151</v>
       </c>
       <c r="B58" s="3">
-        <v>9.1558119999999992</v>
+        <v>9.3091720000000002</v>
       </c>
       <c r="C58" s="3">
-        <v>8.4877990000000008</v>
+        <v>8.5282979999999995</v>
       </c>
       <c r="D58" s="3">
-        <v>92.959440000000001</v>
+        <v>92.241870000000006</v>
       </c>
       <c r="E58" s="3">
-        <v>103.9687</v>
+        <v>103.6981</v>
       </c>
       <c r="F58" s="3">
-        <v>4.8711579999999997E-2</v>
+        <v>4.7982440000000001E-2</v>
       </c>
       <c r="G58" s="3">
-        <v>0.99835430000000003</v>
+        <v>0.99842609999999998</v>
       </c>
       <c r="H58" s="3">
-        <v>6.7579669999999994E-2</v>
+        <v>6.6607449999999999E-2</v>
       </c>
       <c r="I58" s="3">
-        <v>1.0702940000000001</v>
+        <v>1.0306010000000001</v>
       </c>
       <c r="J58" s="3">
-        <v>19.491160000000001</v>
+        <v>19.215879999999999</v>
       </c>
       <c r="K58" s="3">
-        <v>7.2865679999999999</v>
+        <v>12.336729999999999</v>
       </c>
       <c r="L58" s="3">
-        <v>17.436350000000001</v>
+        <v>29.085419999999999</v>
       </c>
       <c r="M58" s="3">
-        <v>5.1490470000000004</v>
+        <v>8.6735830000000007</v>
       </c>
       <c r="N58" s="3">
-        <v>0.29534640000000001</v>
+        <v>0.28670410000000002</v>
       </c>
       <c r="O58" s="3">
-        <v>996.39449999999999</v>
+        <v>996.37760000000003</v>
       </c>
       <c r="P58" s="3">
-        <v>46.904301680000003</v>
+        <v>46.90431727</v>
       </c>
       <c r="Q58" s="3">
-        <v>-91.036860270000005</v>
+        <v>-91.036838630000005</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>45131.473854166667</v>
+        <v>45131.474097222221</v>
       </c>
       <c r="B59" s="3">
-        <v>9.1584769999999995</v>
+        <v>9.3127200000000006</v>
       </c>
       <c r="C59" s="3">
-        <v>8.4974609999999995</v>
+        <v>8.5231560000000002</v>
       </c>
       <c r="D59" s="3">
-        <v>92.946349999999995</v>
+        <v>92.219390000000004</v>
       </c>
       <c r="E59" s="3">
-        <v>103.96380000000001</v>
+        <v>103.6785</v>
       </c>
       <c r="F59" s="3">
-        <v>4.8709139999999998E-2</v>
+        <v>4.794466E-2</v>
       </c>
       <c r="G59" s="3">
-        <v>0.9983552</v>
+        <v>0.99842770000000003</v>
       </c>
       <c r="H59" s="3">
-        <v>6.7576449999999996E-2</v>
+        <v>6.6556900000000002E-2</v>
       </c>
       <c r="I59" s="3">
-        <v>1.0715250000000001</v>
+        <v>1.025879</v>
       </c>
       <c r="J59" s="3">
-        <v>19.487970000000001</v>
+        <v>19.213349999999998</v>
       </c>
       <c r="K59" s="3">
-        <v>7.3376150000000004</v>
+        <v>12.39453</v>
       </c>
       <c r="L59" s="3">
-        <v>17.554130000000001</v>
+        <v>29.21875</v>
       </c>
       <c r="M59" s="3">
-        <v>5.1790919999999998</v>
+        <v>8.7142189999999999</v>
       </c>
       <c r="N59" s="3">
-        <v>0.29591499999999998</v>
+        <v>0.28714149999999999</v>
       </c>
       <c r="O59" s="3">
-        <v>996.39589999999998</v>
+        <v>996.37789999999995</v>
       </c>
       <c r="P59" s="3">
-        <v>46.904287480000001</v>
+        <v>46.90431727</v>
       </c>
       <c r="Q59" s="3">
-        <v>-91.036862400000004</v>
+        <v>-91.036838630000005</v>
       </c>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45131.473865740743</v>
+        <v>45131.474108796298</v>
       </c>
       <c r="B60" s="3">
-        <v>9.1611410000000006</v>
+        <v>9.1527670000000008</v>
       </c>
       <c r="C60" s="3">
-        <v>8.5071250000000003</v>
+        <v>8.4537060000000004</v>
       </c>
       <c r="D60" s="3">
-        <v>92.933250000000001</v>
+        <v>88.790710000000004</v>
       </c>
       <c r="E60" s="3">
-        <v>103.9588</v>
+        <v>100.73520000000001</v>
       </c>
       <c r="F60" s="3">
-        <v>4.8706680000000002E-2</v>
+        <v>4.7075560000000002E-2</v>
       </c>
       <c r="G60" s="3">
-        <v>0.99835609999999997</v>
+        <v>0.9984866</v>
       </c>
       <c r="H60" s="3">
-        <v>6.7573220000000003E-2</v>
+        <v>6.5396869999999996E-2</v>
       </c>
       <c r="I60" s="3">
-        <v>1.072757</v>
+        <v>1.14046</v>
       </c>
       <c r="J60" s="3">
-        <v>19.484780000000001</v>
+        <v>18.790220000000001</v>
       </c>
       <c r="K60" s="3">
-        <v>7.3886620000000001</v>
+        <v>12.60796</v>
       </c>
       <c r="L60" s="3">
-        <v>17.671900000000001</v>
+        <v>29.709209999999999</v>
       </c>
       <c r="M60" s="3">
-        <v>5.209136</v>
+        <v>8.8642769999999995</v>
       </c>
       <c r="N60" s="3">
-        <v>0.29648350000000001</v>
+        <v>0.2875685</v>
       </c>
       <c r="O60" s="3">
-        <v>996.39729999999997</v>
+        <v>996.41420000000005</v>
       </c>
       <c r="P60" s="3">
-        <v>46.904287480000001</v>
+        <v>46.90431727</v>
       </c>
       <c r="Q60" s="3">
-        <v>-91.036862400000004</v>
+        <v>-91.036838630000005</v>
       </c>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>45131.473877314813</v>
+        <v>45131.474120370367</v>
       </c>
       <c r="B61" s="3">
-        <v>9.0754160000000006</v>
+        <v>9.1458329999999997</v>
       </c>
       <c r="C61" s="3">
-        <v>8.4945959999999996</v>
+        <v>8.4477829999999994</v>
       </c>
       <c r="D61" s="3">
-        <v>92.842640000000003</v>
+        <v>88.608999999999995</v>
       </c>
       <c r="E61" s="3">
-        <v>103.9584</v>
+        <v>100.57859999999999</v>
       </c>
       <c r="F61" s="3">
-        <v>4.8705999999999999E-2</v>
+        <v>4.7015840000000003E-2</v>
       </c>
       <c r="G61" s="3">
-        <v>0.99836519999999995</v>
+        <v>0.99849019999999999</v>
       </c>
       <c r="H61" s="3">
-        <v>6.7572939999999998E-2</v>
+        <v>6.5317109999999998E-2</v>
       </c>
       <c r="I61" s="3">
-        <v>1.017174</v>
+        <v>1.1428799999999999</v>
       </c>
       <c r="J61" s="3">
-        <v>19.406559999999999</v>
+        <v>18.768149999999999</v>
       </c>
       <c r="K61" s="3">
-        <v>7.649235</v>
+        <v>12.63913</v>
       </c>
       <c r="L61" s="3">
-        <v>18.272870000000001</v>
+        <v>29.781030000000001</v>
       </c>
       <c r="M61" s="3">
-        <v>5.3867599999999998</v>
+        <v>8.8861950000000007</v>
       </c>
       <c r="N61" s="3">
-        <v>0.28146650000000001</v>
+        <v>0.28790199999999999</v>
       </c>
       <c r="O61" s="3">
-        <v>996.40660000000003</v>
+        <v>996.41660000000002</v>
       </c>
       <c r="P61" s="3">
-        <v>46.904287480000001</v>
+        <v>46.90431727</v>
       </c>
       <c r="Q61" s="3">
-        <v>-91.036862400000004</v>
+        <v>-91.036838630000005</v>
       </c>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>45131.47388888889</v>
+        <v>45131.474131944444</v>
       </c>
       <c r="B62" s="3">
-        <v>9.0728860000000005</v>
+        <v>9.1388979999999993</v>
       </c>
       <c r="C62" s="3">
-        <v>8.4990389999999998</v>
+        <v>8.4418620000000004</v>
       </c>
       <c r="D62" s="3">
-        <v>92.834720000000004</v>
+        <v>88.427289999999999</v>
       </c>
       <c r="E62" s="3">
-        <v>103.9581</v>
+        <v>100.42189999999999</v>
       </c>
       <c r="F62" s="3">
-        <v>4.8705819999999997E-2</v>
+        <v>4.6956129999999999E-2</v>
       </c>
       <c r="G62" s="3">
-        <v>0.99836590000000003</v>
+        <v>0.99849379999999999</v>
       </c>
       <c r="H62" s="3">
-        <v>6.7572740000000006E-2</v>
+        <v>6.523735E-2</v>
       </c>
       <c r="I62" s="3">
-        <v>1.0149889999999999</v>
+        <v>1.1453009999999999</v>
       </c>
       <c r="J62" s="3">
-        <v>19.401689999999999</v>
+        <v>18.746079999999999</v>
       </c>
       <c r="K62" s="3">
-        <v>7.6799150000000003</v>
+        <v>12.670310000000001</v>
       </c>
       <c r="L62" s="3">
-        <v>18.343640000000001</v>
+        <v>29.85285</v>
       </c>
       <c r="M62" s="3">
-        <v>5.4039580000000003</v>
+        <v>8.9081130000000002</v>
       </c>
       <c r="N62" s="3">
-        <v>0.28084179999999997</v>
+        <v>0.28823549999999998</v>
       </c>
       <c r="O62" s="3">
-        <v>996.40769999999998</v>
+        <v>996.41890000000001</v>
       </c>
       <c r="P62" s="3">
-        <v>46.904287480000001</v>
+        <v>46.90431727</v>
       </c>
       <c r="Q62" s="3">
-        <v>-91.036862400000004</v>
+        <v>-91.036838630000005</v>
       </c>
       <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>45131.473900462966</v>
-      </c>
-      <c r="B63" s="3">
-        <v>9.0703569999999996</v>
-      </c>
-      <c r="C63" s="3">
-        <v>8.5034810000000007</v>
-      </c>
-      <c r="D63" s="3">
-        <v>92.826790000000003</v>
-      </c>
-      <c r="E63" s="3">
-        <v>103.95780000000001</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4.8705640000000001E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0.99836670000000005</v>
-      </c>
-      <c r="H63" s="3">
-        <v>6.7572549999999995E-2</v>
-      </c>
-      <c r="I63" s="3">
-        <v>1.012804</v>
-      </c>
-      <c r="J63" s="3">
-        <v>19.396830000000001</v>
-      </c>
-      <c r="K63" s="3">
-        <v>7.7105949999999996</v>
-      </c>
-      <c r="L63" s="3">
-        <v>18.41441</v>
-      </c>
-      <c r="M63" s="3">
-        <v>5.4211559999999999</v>
-      </c>
-      <c r="N63" s="3">
-        <v>0.2802171</v>
-      </c>
-      <c r="O63" s="3">
-        <v>996.40890000000002</v>
-      </c>
-      <c r="P63" s="3">
-        <v>46.904287480000001</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>-91.036862400000004</v>
-      </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>45131.473912037036</v>
-      </c>
-      <c r="B64" s="3">
-        <v>9.0678280000000004</v>
-      </c>
-      <c r="C64" s="3">
-        <v>8.5079220000000007</v>
-      </c>
-      <c r="D64" s="3">
-        <v>92.818860000000001</v>
-      </c>
-      <c r="E64" s="3">
-        <v>103.9575</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.8705449999999997E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.99836749999999996</v>
-      </c>
-      <c r="H64" s="3">
-        <v>6.7572359999999998E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>1.0106189999999999</v>
-      </c>
-      <c r="J64" s="3">
-        <v>19.391960000000001</v>
-      </c>
-      <c r="K64" s="3">
-        <v>7.7412749999999999</v>
-      </c>
-      <c r="L64" s="3">
-        <v>18.48518</v>
-      </c>
-      <c r="M64" s="3">
-        <v>5.4383540000000004</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0.27959250000000002</v>
-      </c>
-      <c r="O64" s="3">
-        <v>996.41010000000006</v>
-      </c>
-      <c r="P64" s="3">
-        <v>46.904297460000002</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>-91.036863659999995</v>
-      </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>45131.473923611113</v>
-      </c>
-      <c r="B65" s="3">
-        <v>9.1611360000000008</v>
-      </c>
-      <c r="C65" s="3">
-        <v>8.5088229999999996</v>
-      </c>
-      <c r="D65" s="3">
-        <v>92.765280000000004</v>
-      </c>
-      <c r="E65" s="3">
-        <v>104.0273</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4.8738700000000003E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.99837819999999999</v>
-      </c>
-      <c r="H65" s="3">
-        <v>6.7617709999999998E-2</v>
-      </c>
-      <c r="I65" s="3">
-        <v>1.139005</v>
-      </c>
-      <c r="J65" s="3">
-        <v>19.373619999999999</v>
-      </c>
-      <c r="K65" s="3">
-        <v>8.9514859999999992</v>
-      </c>
-      <c r="L65" s="3">
-        <v>21.27684</v>
-      </c>
-      <c r="M65" s="3">
-        <v>6.2935210000000001</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0.27145609999999998</v>
-      </c>
-      <c r="O65" s="3">
-        <v>996.4271</v>
-      </c>
-      <c r="P65" s="3">
-        <v>46.904297460000002</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>-91.036863659999995</v>
-      </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>45131.473935185182</v>
-      </c>
-      <c r="B66" s="3">
-        <v>9.1639630000000007</v>
-      </c>
-      <c r="C66" s="3">
-        <v>8.5087109999999999</v>
-      </c>
-      <c r="D66" s="3">
-        <v>92.760459999999995</v>
-      </c>
-      <c r="E66" s="3">
-        <v>104.0307</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4.8740350000000002E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.99837889999999996</v>
-      </c>
-      <c r="H66" s="3">
-        <v>6.7619979999999996E-2</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1.1442479999999999</v>
-      </c>
-      <c r="J66" s="3">
-        <v>19.370920000000002</v>
-      </c>
-      <c r="K66" s="3">
-        <v>9.0187480000000004</v>
-      </c>
-      <c r="L66" s="3">
-        <v>21.431999999999999</v>
-      </c>
-      <c r="M66" s="3">
-        <v>6.3408110000000004</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0.27071499999999998</v>
-      </c>
-      <c r="O66" s="3">
-        <v>996.42819999999995</v>
-      </c>
-      <c r="P66" s="3">
-        <v>46.904297460000002</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>-91.036863659999995</v>
-      </c>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>45131.473946759259</v>
-      </c>
-      <c r="B67" s="3">
-        <v>9.1667909999999999</v>
-      </c>
-      <c r="C67" s="3">
-        <v>8.5085979999999992</v>
-      </c>
-      <c r="D67" s="3">
-        <v>92.75564</v>
-      </c>
-      <c r="E67" s="3">
-        <v>104.0342</v>
-      </c>
-      <c r="F67" s="3">
-        <v>4.8742000000000001E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.99837960000000003</v>
-      </c>
-      <c r="H67" s="3">
-        <v>6.7622249999999995E-2</v>
-      </c>
-      <c r="I67" s="3">
-        <v>1.1494899999999999</v>
-      </c>
-      <c r="J67" s="3">
-        <v>19.368220000000001</v>
-      </c>
-      <c r="K67" s="3">
-        <v>9.0860099999999999</v>
-      </c>
-      <c r="L67" s="3">
-        <v>21.587150000000001</v>
-      </c>
-      <c r="M67" s="3">
-        <v>6.3881009999999998</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0.26997389999999999</v>
-      </c>
-      <c r="O67" s="3">
-        <v>996.42930000000001</v>
-      </c>
-      <c r="P67" s="3">
-        <v>46.904297460000002</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>-91.036863659999995</v>
-      </c>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>45131.473958333336</v>
-      </c>
-      <c r="B68" s="3">
-        <v>9.2272219999999994</v>
-      </c>
-      <c r="C68" s="3">
-        <v>8.4122380000000003</v>
-      </c>
-      <c r="D68" s="3">
-        <v>92.758070000000004</v>
-      </c>
-      <c r="E68" s="3">
-        <v>104.04430000000001</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4.8746780000000003E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.99838130000000003</v>
-      </c>
-      <c r="H68" s="3">
-        <v>6.7628770000000005E-2</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1.1386579999999999</v>
-      </c>
-      <c r="J68" s="3">
-        <v>19.325610000000001</v>
-      </c>
-      <c r="K68" s="3">
-        <v>9.7434589999999996</v>
-      </c>
-      <c r="L68" s="3">
-        <v>23.103670000000001</v>
-      </c>
-      <c r="M68" s="3">
-        <v>6.850333</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0.2780398</v>
-      </c>
-      <c r="O68" s="3">
-        <v>996.42049999999995</v>
-      </c>
-      <c r="P68" s="3">
-        <v>46.904297460000002</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>-91.036863659999995</v>
-      </c>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>45131.473969907405</v>
-      </c>
-      <c r="B69" s="3">
-        <v>9.2322030000000002</v>
-      </c>
-      <c r="C69" s="3">
-        <v>8.4075550000000003</v>
-      </c>
-      <c r="D69" s="3">
-        <v>92.756889999999999</v>
-      </c>
-      <c r="E69" s="3">
-        <v>104.0463</v>
-      </c>
-      <c r="F69" s="3">
-        <v>4.8747730000000003E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.99838159999999998</v>
-      </c>
-      <c r="H69" s="3">
-        <v>6.763007E-2</v>
-      </c>
-      <c r="I69" s="3">
-        <v>1.1408419999999999</v>
-      </c>
-      <c r="J69" s="3">
-        <v>19.32301</v>
-      </c>
-      <c r="K69" s="3">
-        <v>9.8027990000000003</v>
-      </c>
-      <c r="L69" s="3">
-        <v>23.240549999999999</v>
-      </c>
-      <c r="M69" s="3">
-        <v>6.8920539999999999</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0.27825699999999998</v>
-      </c>
-      <c r="O69" s="3">
-        <v>996.42039999999997</v>
-      </c>
-      <c r="P69" s="3">
-        <v>46.904297460000002</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>-91.036863659999995</v>
-      </c>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>45131.473981481482</v>
-      </c>
-      <c r="B70" s="3">
-        <v>9.2371829999999999</v>
-      </c>
-      <c r="C70" s="3">
-        <v>8.4028720000000003</v>
-      </c>
-      <c r="D70" s="3">
-        <v>92.755709999999993</v>
-      </c>
-      <c r="E70" s="3">
-        <v>104.0483</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4.8748680000000003E-2</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.99838199999999999</v>
-      </c>
-      <c r="H70" s="3">
-        <v>6.7631360000000001E-2</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1.143025</v>
-      </c>
-      <c r="J70" s="3">
-        <v>19.320399999999999</v>
-      </c>
-      <c r="K70" s="3">
-        <v>9.8621390000000009</v>
-      </c>
-      <c r="L70" s="3">
-        <v>23.37743</v>
-      </c>
-      <c r="M70" s="3">
-        <v>6.9337739999999997</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0.27847420000000001</v>
-      </c>
-      <c r="O70" s="3">
-        <v>996.42039999999997</v>
-      </c>
-      <c r="P70" s="3">
-        <v>46.904297460000002</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>-91.036863659999995</v>
-      </c>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>45131.473993055559</v>
-      </c>
-      <c r="B71" s="3">
-        <v>9.2024089999999994</v>
-      </c>
-      <c r="C71" s="3">
-        <v>8.5898020000000006</v>
-      </c>
-      <c r="D71" s="3">
-        <v>92.722009999999997</v>
-      </c>
-      <c r="E71" s="3">
-        <v>104.0626</v>
-      </c>
-      <c r="F71" s="3">
-        <v>4.8778210000000002E-2</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0.99839040000000001</v>
-      </c>
-      <c r="H71" s="3">
-        <v>6.7671609999999993E-2</v>
-      </c>
-      <c r="I71" s="3">
-        <v>1.0369349999999999</v>
-      </c>
-      <c r="J71" s="3">
-        <v>19.295819999999999</v>
-      </c>
-      <c r="K71" s="3">
-        <v>10.61655</v>
-      </c>
-      <c r="L71" s="3">
-        <v>25.11739</v>
-      </c>
-      <c r="M71" s="3">
-        <v>7.4641799999999998</v>
-      </c>
-      <c r="N71" s="3">
-        <v>0.2864642</v>
-      </c>
-      <c r="O71" s="3">
-        <v>996.40279999999996</v>
-      </c>
-      <c r="P71" s="3">
-        <v>46.904303929999998</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>-91.036849279999998</v>
-      </c>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>45131.474004629628</v>
-      </c>
-      <c r="B72" s="3">
-        <v>9.2019020000000005</v>
-      </c>
-      <c r="C72" s="3">
-        <v>8.5973480000000002</v>
-      </c>
-      <c r="D72" s="3">
-        <v>92.720280000000002</v>
-      </c>
-      <c r="E72" s="3">
-        <v>104.0635</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4.8779839999999998E-2</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0.99839089999999997</v>
-      </c>
-      <c r="H72" s="3">
-        <v>6.7673819999999996E-2</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1.0313680000000001</v>
-      </c>
-      <c r="J72" s="3">
-        <v>19.29365</v>
-      </c>
-      <c r="K72" s="3">
-        <v>10.66933</v>
-      </c>
-      <c r="L72" s="3">
-        <v>25.23912</v>
-      </c>
-      <c r="M72" s="3">
-        <v>7.5012869999999996</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0.28702569999999999</v>
-      </c>
-      <c r="O72" s="3">
-        <v>996.40170000000001</v>
-      </c>
-      <c r="P72" s="3">
-        <v>46.904303929999998</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-91.036849279999998</v>
-      </c>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>45131.474016203705</v>
-      </c>
-      <c r="B73" s="3">
-        <v>9.2013949999999998</v>
-      </c>
-      <c r="C73" s="3">
-        <v>8.6048950000000008</v>
-      </c>
-      <c r="D73" s="3">
-        <v>92.718540000000004</v>
-      </c>
-      <c r="E73" s="3">
-        <v>104.0645</v>
-      </c>
-      <c r="F73" s="3">
-        <v>4.8781459999999999E-2</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0.99839140000000004</v>
-      </c>
-      <c r="H73" s="3">
-        <v>6.7676040000000007E-2</v>
-      </c>
-      <c r="I73" s="3">
-        <v>1.0258</v>
-      </c>
-      <c r="J73" s="3">
-        <v>19.29148</v>
-      </c>
-      <c r="K73" s="3">
-        <v>10.722110000000001</v>
-      </c>
-      <c r="L73" s="3">
-        <v>25.360849999999999</v>
-      </c>
-      <c r="M73" s="3">
-        <v>7.5383930000000001</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0.28758729999999999</v>
-      </c>
-      <c r="O73" s="3">
-        <v>996.40070000000003</v>
-      </c>
-      <c r="P73" s="3">
-        <v>46.904303929999998</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>-91.036849279999998</v>
-      </c>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>45131.474027777775</v>
-      </c>
-      <c r="B74" s="3">
-        <v>9.2493730000000003</v>
-      </c>
-      <c r="C74" s="3">
-        <v>8.6408819999999995</v>
-      </c>
-      <c r="D74" s="3">
-        <v>92.729280000000003</v>
-      </c>
-      <c r="E74" s="3">
-        <v>104.14239999999999</v>
-      </c>
-      <c r="F74" s="3">
-        <v>4.8796609999999997E-2</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0.99839359999999999</v>
-      </c>
-      <c r="H74" s="3">
-        <v>6.7696530000000005E-2</v>
-      </c>
-      <c r="I74" s="3">
-        <v>1.1854560000000001</v>
-      </c>
-      <c r="J74" s="3">
-        <v>19.262250000000002</v>
-      </c>
-      <c r="K74" s="3">
-        <v>11.21308</v>
-      </c>
-      <c r="L74" s="3">
-        <v>26.493459999999999</v>
-      </c>
-      <c r="M74" s="3">
-        <v>7.8835790000000001</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0.27230650000000001</v>
-      </c>
-      <c r="O74" s="3">
-        <v>996.35760000000005</v>
-      </c>
-      <c r="P74" s="3">
-        <v>46.904303929999998</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>-91.036849279999998</v>
-      </c>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>45131.474039351851</v>
-      </c>
-      <c r="B75" s="3">
-        <v>9.2511510000000001</v>
-      </c>
-      <c r="C75" s="3">
-        <v>8.6466410000000007</v>
-      </c>
-      <c r="D75" s="3">
-        <v>92.729119999999995</v>
-      </c>
-      <c r="E75" s="3">
-        <v>104.1467</v>
-      </c>
-      <c r="F75" s="3">
-        <v>4.8798010000000003E-2</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0.99839389999999995</v>
-      </c>
-      <c r="H75" s="3">
-        <v>6.7698439999999999E-2</v>
-      </c>
-      <c r="I75" s="3">
-        <v>1.191532</v>
-      </c>
-      <c r="J75" s="3">
-        <v>19.26022</v>
-      </c>
-      <c r="K75" s="3">
-        <v>11.25446</v>
-      </c>
-      <c r="L75" s="3">
-        <v>26.588920000000002</v>
-      </c>
-      <c r="M75" s="3">
-        <v>7.9126750000000001</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0.2716808</v>
-      </c>
-      <c r="O75" s="3">
-        <v>996.35500000000002</v>
-      </c>
-      <c r="P75" s="3">
-        <v>46.904303929999998</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>-91.036849279999998</v>
-      </c>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>45131.474050925928</v>
-      </c>
-      <c r="B76" s="3">
-        <v>9.2529299999999992</v>
-      </c>
-      <c r="C76" s="3">
-        <v>8.6523990000000008</v>
-      </c>
-      <c r="D76" s="3">
-        <v>92.728960000000001</v>
-      </c>
-      <c r="E76" s="3">
-        <v>104.151</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4.8799420000000003E-2</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0.99839420000000001</v>
-      </c>
-      <c r="H76" s="3">
-        <v>6.7700350000000006E-2</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1.197608</v>
-      </c>
-      <c r="J76" s="3">
-        <v>19.258199999999999</v>
-      </c>
-      <c r="K76" s="3">
-        <v>11.29585</v>
-      </c>
-      <c r="L76" s="3">
-        <v>26.68439</v>
-      </c>
-      <c r="M76" s="3">
-        <v>7.9417720000000003</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0.27105509999999999</v>
-      </c>
-      <c r="O76" s="3">
-        <v>996.35239999999999</v>
-      </c>
-      <c r="P76" s="3">
-        <v>46.904303929999998</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-91.036849279999998</v>
-      </c>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>45131.474062499998</v>
-      </c>
-      <c r="B77" s="3">
-        <v>9.3020750000000003</v>
-      </c>
-      <c r="C77" s="3">
-        <v>8.5385819999999999</v>
-      </c>
-      <c r="D77" s="3">
-        <v>92.286850000000001</v>
-      </c>
-      <c r="E77" s="3">
-        <v>103.7373</v>
-      </c>
-      <c r="F77" s="3">
-        <v>4.805802E-2</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.99842310000000001</v>
-      </c>
-      <c r="H77" s="3">
-        <v>6.6708530000000002E-2</v>
-      </c>
-      <c r="I77" s="3">
-        <v>1.040044</v>
-      </c>
-      <c r="J77" s="3">
-        <v>19.220939999999999</v>
-      </c>
-      <c r="K77" s="3">
-        <v>12.22113</v>
-      </c>
-      <c r="L77" s="3">
-        <v>28.818770000000001</v>
-      </c>
-      <c r="M77" s="3">
-        <v>8.5923119999999997</v>
-      </c>
-      <c r="N77" s="3">
-        <v>0.28582920000000001</v>
-      </c>
-      <c r="O77" s="3">
-        <v>996.3768</v>
-      </c>
-      <c r="P77" s="3">
-        <v>46.904303929999998</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>-91.036849279999998</v>
-      </c>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>45131.474074074074</v>
-      </c>
-      <c r="B78" s="3">
-        <v>9.3056239999999999</v>
-      </c>
-      <c r="C78" s="3">
-        <v>8.5334400000000006</v>
-      </c>
-      <c r="D78" s="3">
-        <v>92.264359999999996</v>
-      </c>
-      <c r="E78" s="3">
-        <v>103.71769999999999</v>
-      </c>
-      <c r="F78" s="3">
-        <v>4.8020229999999997E-2</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0.9984246</v>
-      </c>
-      <c r="H78" s="3">
-        <v>6.665799E-2</v>
-      </c>
-      <c r="I78" s="3">
-        <v>1.035323</v>
-      </c>
-      <c r="J78" s="3">
-        <v>19.218399999999999</v>
-      </c>
-      <c r="K78" s="3">
-        <v>12.278930000000001</v>
-      </c>
-      <c r="L78" s="3">
-        <v>28.952100000000002</v>
-      </c>
-      <c r="M78" s="3">
-        <v>8.6329469999999997</v>
-      </c>
-      <c r="N78" s="3">
-        <v>0.28626659999999998</v>
-      </c>
-      <c r="O78" s="3">
-        <v>996.37720000000002</v>
-      </c>
-      <c r="P78" s="3">
-        <v>46.90431727</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>-91.036838630000005</v>
-      </c>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>45131.474085648151</v>
-      </c>
-      <c r="B79" s="3">
-        <v>9.3091720000000002</v>
-      </c>
-      <c r="C79" s="3">
-        <v>8.5282979999999995</v>
-      </c>
-      <c r="D79" s="3">
-        <v>92.241870000000006</v>
-      </c>
-      <c r="E79" s="3">
-        <v>103.6981</v>
-      </c>
-      <c r="F79" s="3">
-        <v>4.7982440000000001E-2</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.99842609999999998</v>
-      </c>
-      <c r="H79" s="3">
-        <v>6.6607449999999999E-2</v>
-      </c>
-      <c r="I79" s="3">
-        <v>1.0306010000000001</v>
-      </c>
-      <c r="J79" s="3">
-        <v>19.215879999999999</v>
-      </c>
-      <c r="K79" s="3">
-        <v>12.336729999999999</v>
-      </c>
-      <c r="L79" s="3">
-        <v>29.085419999999999</v>
-      </c>
-      <c r="M79" s="3">
-        <v>8.6735830000000007</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0.28670410000000002</v>
-      </c>
-      <c r="O79" s="3">
-        <v>996.37760000000003</v>
-      </c>
-      <c r="P79" s="3">
-        <v>46.90431727</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>-91.036838630000005</v>
-      </c>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>45131.474097222221</v>
-      </c>
-      <c r="B80" s="3">
-        <v>9.3127200000000006</v>
-      </c>
-      <c r="C80" s="3">
-        <v>8.5231560000000002</v>
-      </c>
-      <c r="D80" s="3">
-        <v>92.219390000000004</v>
-      </c>
-      <c r="E80" s="3">
-        <v>103.6785</v>
-      </c>
-      <c r="F80" s="3">
-        <v>4.794466E-2</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0.99842770000000003</v>
-      </c>
-      <c r="H80" s="3">
-        <v>6.6556900000000002E-2</v>
-      </c>
-      <c r="I80" s="3">
-        <v>1.025879</v>
-      </c>
-      <c r="J80" s="3">
-        <v>19.213349999999998</v>
-      </c>
-      <c r="K80" s="3">
-        <v>12.39453</v>
-      </c>
-      <c r="L80" s="3">
-        <v>29.21875</v>
-      </c>
-      <c r="M80" s="3">
-        <v>8.7142189999999999</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0.28714149999999999</v>
-      </c>
-      <c r="O80" s="3">
-        <v>996.37789999999995</v>
-      </c>
-      <c r="P80" s="3">
-        <v>46.90431727</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>-91.036838630000005</v>
-      </c>
-      <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>45131.474108796298</v>
-      </c>
-      <c r="B81" s="3">
-        <v>9.1527670000000008</v>
-      </c>
-      <c r="C81" s="3">
-        <v>8.4537060000000004</v>
-      </c>
-      <c r="D81" s="3">
-        <v>88.790710000000004</v>
-      </c>
-      <c r="E81" s="3">
-        <v>100.73520000000001</v>
-      </c>
-      <c r="F81" s="3">
-        <v>4.7075560000000002E-2</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.9984866</v>
-      </c>
-      <c r="H81" s="3">
-        <v>6.5396869999999996E-2</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1.14046</v>
-      </c>
-      <c r="J81" s="3">
-        <v>18.790220000000001</v>
-      </c>
-      <c r="K81" s="3">
-        <v>12.60796</v>
-      </c>
-      <c r="L81" s="3">
-        <v>29.709209999999999</v>
-      </c>
-      <c r="M81" s="3">
-        <v>8.8642769999999995</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0.2875685</v>
-      </c>
-      <c r="O81" s="3">
-        <v>996.41420000000005</v>
-      </c>
-      <c r="P81" s="3">
-        <v>46.90431727</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-91.036838630000005</v>
-      </c>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>45131.474120370367</v>
-      </c>
-      <c r="B82" s="3">
-        <v>9.1458329999999997</v>
-      </c>
-      <c r="C82" s="3">
-        <v>8.4477829999999994</v>
-      </c>
-      <c r="D82" s="3">
-        <v>88.608999999999995</v>
-      </c>
-      <c r="E82" s="3">
-        <v>100.57859999999999</v>
-      </c>
-      <c r="F82" s="3">
-        <v>4.7015840000000003E-2</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.99849019999999999</v>
-      </c>
-      <c r="H82" s="3">
-        <v>6.5317109999999998E-2</v>
-      </c>
-      <c r="I82" s="3">
-        <v>1.1428799999999999</v>
-      </c>
-      <c r="J82" s="3">
-        <v>18.768149999999999</v>
-      </c>
-      <c r="K82" s="3">
-        <v>12.63913</v>
-      </c>
-      <c r="L82" s="3">
-        <v>29.781030000000001</v>
-      </c>
-      <c r="M82" s="3">
-        <v>8.8861950000000007</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0.28790199999999999</v>
-      </c>
-      <c r="O82" s="3">
-        <v>996.41660000000002</v>
-      </c>
-      <c r="P82" s="3">
-        <v>46.90431727</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>-91.036838630000005</v>
-      </c>
-      <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>45131.474131944444</v>
-      </c>
-      <c r="B83" s="3">
-        <v>9.1388979999999993</v>
-      </c>
-      <c r="C83" s="3">
-        <v>8.4418620000000004</v>
-      </c>
-      <c r="D83" s="3">
-        <v>88.427289999999999</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100.42189999999999</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4.6956129999999999E-2</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0.99849379999999999</v>
-      </c>
-      <c r="H83" s="3">
-        <v>6.523735E-2</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1.1453009999999999</v>
-      </c>
-      <c r="J83" s="3">
-        <v>18.746079999999999</v>
-      </c>
-      <c r="K83" s="3">
-        <v>12.670310000000001</v>
-      </c>
-      <c r="L83" s="3">
-        <v>29.85285</v>
-      </c>
-      <c r="M83" s="3">
-        <v>8.9081130000000002</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0.28823549999999998</v>
-      </c>
-      <c r="O83" s="3">
-        <v>996.41890000000001</v>
-      </c>
-      <c r="P83" s="3">
-        <v>46.90431727</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>-91.036838630000005</v>
-      </c>
-      <c r="R83" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
